--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF9AC76-900E-9446-BBEC-BCC09A4B8C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA838B-79D1-EA4E-B02A-3D6D83B85B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="13440" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="L50" zoomScale="81" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="V80" sqref="V80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5008,7 +5008,60 @@
       <c r="CP79" s="2"/>
     </row>
     <row r="80" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
+      <c r="A80" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B80" s="2">
+        <v>373040</v>
+      </c>
+      <c r="C80" s="5">
+        <v>24023</v>
+      </c>
+      <c r="E80" s="1">
+        <v>43984</v>
+      </c>
+      <c r="F80" s="2">
+        <v>161545</v>
+      </c>
+      <c r="G80" s="2">
+        <v>11770</v>
+      </c>
+      <c r="I80" s="1">
+        <v>43984</v>
+      </c>
+      <c r="J80" s="2">
+        <v>101163</v>
+      </c>
+      <c r="K80" s="2">
+        <v>7085</v>
+      </c>
+      <c r="M80" s="1">
+        <v>43984</v>
+      </c>
+      <c r="N80" s="2">
+        <v>57731</v>
+      </c>
+      <c r="O80" s="2">
+        <v>5553</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>43984</v>
+      </c>
+      <c r="R80" s="2">
+        <v>72894</v>
+      </c>
+      <c r="S80" s="2">
+        <v>5667</v>
+      </c>
+      <c r="U80" s="1">
+        <v>43984</v>
+      </c>
+      <c r="V80" s="2">
+        <v>115310</v>
+      </c>
+      <c r="W80" s="2">
+        <v>4286</v>
+      </c>
       <c r="CN80" s="2"/>
       <c r="CO80" s="2"/>
       <c r="CP80" s="2"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA838B-79D1-EA4E-B02A-3D6D83B85B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA29FF01-A9D3-5345-BF46-C01D8CE8BB19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="14940" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L50" zoomScale="81" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="V80" sqref="V80"/>
+    <sheetView tabSelected="1" topLeftCell="P63" zoomScale="110" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="V82" sqref="V82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1927,6 +1927,7 @@
         <v>492</v>
       </c>
       <c r="Y26" s="3"/>
+      <c r="Z26" s="2"/>
       <c r="AL26" s="1"/>
       <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
@@ -1993,6 +1994,7 @@
         <v>541</v>
       </c>
       <c r="Y27" s="3"/>
+      <c r="Z27" s="2"/>
       <c r="AL27" s="1"/>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2"/>
@@ -2060,6 +2062,7 @@
         <v>609</v>
       </c>
       <c r="Y28" s="3"/>
+      <c r="Z28" s="2"/>
       <c r="AL28" s="1"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
@@ -2127,6 +2130,7 @@
         <v>651</v>
       </c>
       <c r="Y29" s="3"/>
+      <c r="Z29" s="2"/>
       <c r="AL29" s="1"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
@@ -2191,6 +2195,7 @@
         <v>687</v>
       </c>
       <c r="Y30" s="1"/>
+      <c r="Z30" s="2"/>
       <c r="AL30" s="1"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
@@ -2255,6 +2260,7 @@
         <v>758</v>
       </c>
       <c r="Y31" s="3"/>
+      <c r="Z31" s="2"/>
       <c r="AL31" s="1"/>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
@@ -2318,6 +2324,7 @@
         <v>821</v>
       </c>
       <c r="Y32" s="1"/>
+      <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -2375,6 +2382,7 @@
         <v>890</v>
       </c>
       <c r="Y33" s="1"/>
+      <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -2432,6 +2440,7 @@
         <v>985</v>
       </c>
       <c r="Y34" s="1"/>
+      <c r="Z34" s="2"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
@@ -2505,6 +2514,7 @@
         <v>1072</v>
       </c>
       <c r="Y35" s="1"/>
+      <c r="Z35" s="2"/>
       <c r="AL35" s="1"/>
     </row>
     <row r="36" spans="1:94" x14ac:dyDescent="0.2">
@@ -2562,6 +2572,7 @@
       <c r="W36" s="2">
         <v>1166</v>
       </c>
+      <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -2618,6 +2629,7 @@
       <c r="W37" s="2">
         <v>1208</v>
       </c>
+      <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -2674,6 +2686,7 @@
       <c r="W38" s="2">
         <v>1268</v>
       </c>
+      <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -2730,6 +2743,7 @@
       <c r="W39" s="2">
         <v>1354</v>
       </c>
+      <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -2784,6 +2798,7 @@
       <c r="W40" s="2">
         <v>1469</v>
       </c>
+      <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -2838,6 +2853,7 @@
       <c r="W41" s="2">
         <v>1562</v>
       </c>
+      <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -2894,6 +2910,7 @@
       <c r="W42" s="2">
         <v>1651</v>
       </c>
+      <c r="Z42" s="2"/>
       <c r="CP42" s="2"/>
     </row>
     <row r="43" spans="1:94" x14ac:dyDescent="0.2">
@@ -2952,6 +2969,7 @@
       <c r="W43" s="2">
         <v>1710</v>
       </c>
+      <c r="Z43" s="2"/>
       <c r="CP43" s="2"/>
     </row>
     <row r="44" spans="1:94" x14ac:dyDescent="0.2">
@@ -3010,6 +3028,7 @@
       <c r="W44" s="2">
         <v>1755</v>
       </c>
+      <c r="Z44" s="2"/>
       <c r="CP44" s="2"/>
     </row>
     <row r="45" spans="1:94" x14ac:dyDescent="0.2">
@@ -3067,6 +3086,7 @@
       <c r="W45" s="2">
         <v>1809</v>
       </c>
+      <c r="Z45" s="2"/>
       <c r="CP45" s="2"/>
     </row>
     <row r="46" spans="1:94" x14ac:dyDescent="0.2">
@@ -3124,6 +3144,7 @@
       <c r="W46" s="2">
         <v>1887</v>
       </c>
+      <c r="Z46" s="2"/>
       <c r="CP46" s="2"/>
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.2">
@@ -3181,6 +3202,7 @@
       <c r="W47" s="2">
         <v>1982</v>
       </c>
+      <c r="Z47" s="2"/>
       <c r="CP47" s="2"/>
     </row>
     <row r="48" spans="1:94" x14ac:dyDescent="0.2">
@@ -3238,6 +3260,7 @@
       <c r="W48" s="2">
         <v>2073</v>
       </c>
+      <c r="Z48" s="2"/>
       <c r="CP48" s="2"/>
     </row>
     <row r="49" spans="1:94" x14ac:dyDescent="0.2">
@@ -3295,6 +3318,7 @@
       <c r="W49" s="2">
         <v>2171</v>
       </c>
+      <c r="Z49" s="2"/>
       <c r="CP49" s="2"/>
     </row>
     <row r="50" spans="1:94" x14ac:dyDescent="0.2">
@@ -3352,6 +3376,7 @@
       <c r="W50" s="2">
         <v>2215</v>
       </c>
+      <c r="Z50" s="2"/>
       <c r="CP50" s="2"/>
     </row>
     <row r="51" spans="1:94" x14ac:dyDescent="0.2">
@@ -3409,6 +3434,7 @@
       <c r="W51" s="2">
         <v>2254</v>
       </c>
+      <c r="Z51" s="2"/>
       <c r="CP51" s="2"/>
     </row>
     <row r="52" spans="1:94" x14ac:dyDescent="0.2">
@@ -3466,6 +3492,7 @@
       <c r="W52" s="2">
         <v>2317</v>
       </c>
+      <c r="Z52" s="2"/>
       <c r="CP52" s="2"/>
     </row>
     <row r="53" spans="1:94" x14ac:dyDescent="0.2">
@@ -3523,6 +3550,7 @@
       <c r="W53" s="2">
         <v>2412</v>
       </c>
+      <c r="Z53" s="2"/>
       <c r="CP53" s="2"/>
     </row>
     <row r="54" spans="1:94" x14ac:dyDescent="0.2">
@@ -3580,6 +3608,7 @@
       <c r="W54" s="2">
         <v>2504</v>
       </c>
+      <c r="Z54" s="2"/>
       <c r="CP54" s="2"/>
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.2">
@@ -3637,6 +3666,7 @@
       <c r="W55" s="2">
         <v>2585</v>
       </c>
+      <c r="Z55" s="2"/>
       <c r="CP55" s="2"/>
     </row>
     <row r="56" spans="1:94" x14ac:dyDescent="0.2">
@@ -3694,6 +3724,7 @@
       <c r="W56" s="2">
         <v>2678</v>
       </c>
+      <c r="Z56" s="2"/>
       <c r="CP56" s="2"/>
     </row>
     <row r="57" spans="1:94" x14ac:dyDescent="0.2">
@@ -3751,6 +3782,7 @@
       <c r="W57" s="2">
         <v>2745</v>
       </c>
+      <c r="Z57" s="2"/>
       <c r="CP57" s="2"/>
     </row>
     <row r="58" spans="1:94" x14ac:dyDescent="0.2">
@@ -3808,6 +3840,7 @@
       <c r="W58" s="2">
         <v>2770</v>
       </c>
+      <c r="Z58" s="2"/>
       <c r="CP58" s="2"/>
     </row>
     <row r="59" spans="1:94" x14ac:dyDescent="0.2">
@@ -3865,6 +3898,7 @@
       <c r="W59" s="2">
         <v>2847</v>
       </c>
+      <c r="Z59" s="2"/>
       <c r="CP59" s="2"/>
     </row>
     <row r="60" spans="1:94" x14ac:dyDescent="0.2">
@@ -3922,6 +3956,7 @@
       <c r="W60" s="2">
         <v>2934</v>
       </c>
+      <c r="Z60" s="2"/>
       <c r="CP60" s="2"/>
     </row>
     <row r="61" spans="1:94" x14ac:dyDescent="0.2">
@@ -3979,6 +4014,7 @@
       <c r="W61" s="2">
         <v>3032</v>
       </c>
+      <c r="Z61" s="2"/>
       <c r="CP61" s="2"/>
     </row>
     <row r="62" spans="1:94" x14ac:dyDescent="0.2">
@@ -4036,6 +4072,7 @@
       <c r="W62" s="2">
         <v>3108</v>
       </c>
+      <c r="Z62" s="2"/>
       <c r="CP62" s="2"/>
     </row>
     <row r="63" spans="1:94" x14ac:dyDescent="0.2">
@@ -4093,6 +4130,7 @@
       <c r="W63" s="2">
         <v>3204</v>
       </c>
+      <c r="Z63" s="2"/>
       <c r="CP63" s="2"/>
     </row>
     <row r="64" spans="1:94" x14ac:dyDescent="0.2">
@@ -4150,6 +4188,7 @@
       <c r="W64" s="2">
         <v>3261</v>
       </c>
+      <c r="Z64" s="2"/>
       <c r="CP64" s="2"/>
     </row>
     <row r="65" spans="1:94" x14ac:dyDescent="0.2">
@@ -4207,6 +4246,7 @@
       <c r="W65" s="2">
         <v>3302</v>
       </c>
+      <c r="Z65" s="2"/>
       <c r="CP65" s="2"/>
     </row>
     <row r="66" spans="1:94" x14ac:dyDescent="0.2">
@@ -4264,6 +4304,7 @@
       <c r="W66" s="2">
         <v>3334</v>
       </c>
+      <c r="Z66" s="2"/>
       <c r="CP66" s="2"/>
     </row>
     <row r="67" spans="1:94" x14ac:dyDescent="0.2">
@@ -4321,6 +4362,7 @@
       <c r="W67" s="2">
         <v>3436</v>
       </c>
+      <c r="Z67" s="2"/>
       <c r="CP67" s="2"/>
     </row>
     <row r="68" spans="1:94" x14ac:dyDescent="0.2">
@@ -4378,6 +4420,7 @@
       <c r="W68" s="2">
         <v>3542</v>
       </c>
+      <c r="Z68" s="2"/>
       <c r="CP68" s="2"/>
     </row>
     <row r="69" spans="1:94" x14ac:dyDescent="0.2">
@@ -4435,6 +4478,7 @@
       <c r="W69" s="2">
         <v>3630</v>
       </c>
+      <c r="Z69" s="2"/>
       <c r="CP69" s="2"/>
     </row>
     <row r="70" spans="1:94" x14ac:dyDescent="0.2">
@@ -4492,6 +4536,7 @@
       <c r="W70" s="2">
         <v>3708</v>
       </c>
+      <c r="Z70" s="2"/>
       <c r="CP70" s="2"/>
     </row>
     <row r="71" spans="1:94" x14ac:dyDescent="0.2">
@@ -4549,6 +4594,7 @@
       <c r="W71" s="2">
         <v>3774</v>
       </c>
+      <c r="Z71" s="2"/>
       <c r="CP71" s="2"/>
     </row>
     <row r="72" spans="1:94" x14ac:dyDescent="0.2">
@@ -4606,6 +4652,7 @@
       <c r="W72" s="2">
         <v>3795</v>
       </c>
+      <c r="Z72" s="2"/>
       <c r="CP72" s="2"/>
     </row>
     <row r="73" spans="1:94" x14ac:dyDescent="0.2">
@@ -4663,6 +4710,7 @@
       <c r="W73" s="2">
         <v>3814</v>
       </c>
+      <c r="Z73" s="2"/>
       <c r="CP73" s="2"/>
     </row>
     <row r="74" spans="1:94" x14ac:dyDescent="0.2">
@@ -4720,6 +4768,7 @@
       <c r="W74" s="2">
         <v>3884</v>
       </c>
+      <c r="Z74" s="2"/>
       <c r="CP74" s="2"/>
     </row>
     <row r="75" spans="1:94" x14ac:dyDescent="0.2">
@@ -4777,6 +4826,7 @@
       <c r="W75" s="2">
         <v>3973</v>
       </c>
+      <c r="Z75" s="2"/>
       <c r="CP75" s="2"/>
     </row>
     <row r="76" spans="1:94" x14ac:dyDescent="0.2">
@@ -4834,6 +4884,7 @@
       <c r="W76" s="2">
         <v>4068</v>
       </c>
+      <c r="Z76" s="2"/>
       <c r="CP76" s="2"/>
     </row>
     <row r="77" spans="1:94" x14ac:dyDescent="0.2">
@@ -4891,6 +4942,7 @@
       <c r="W77" s="2">
         <v>4156</v>
       </c>
+      <c r="Z77" s="2"/>
       <c r="CP77" s="2"/>
     </row>
     <row r="78" spans="1:94" x14ac:dyDescent="0.2">
@@ -4948,6 +5000,7 @@
       <c r="W78" s="2">
         <v>4213</v>
       </c>
+      <c r="Z78" s="2"/>
       <c r="CP78" s="2"/>
     </row>
     <row r="79" spans="1:94" x14ac:dyDescent="0.2">
@@ -5005,6 +5058,7 @@
       <c r="W79" s="2">
         <v>4251</v>
       </c>
+      <c r="Z79" s="2"/>
       <c r="CP79" s="2"/>
     </row>
     <row r="80" spans="1:94" x14ac:dyDescent="0.2">
@@ -5062,36 +5116,131 @@
       <c r="W80" s="2">
         <v>4286</v>
       </c>
+      <c r="Z80" s="2"/>
       <c r="CN80" s="2"/>
       <c r="CO80" s="2"/>
       <c r="CP80" s="2"/>
     </row>
+    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B81" s="2">
+        <v>374085</v>
+      </c>
+      <c r="C81">
+        <v>24079</v>
+      </c>
+      <c r="E81" s="1">
+        <v>43985</v>
+      </c>
+      <c r="F81" s="2">
+        <v>162068</v>
+      </c>
+      <c r="G81" s="2">
+        <v>11880</v>
+      </c>
+      <c r="I81" s="1">
+        <v>43985</v>
+      </c>
+      <c r="J81" s="2">
+        <v>101592</v>
+      </c>
+      <c r="K81" s="2">
+        <v>7152</v>
+      </c>
+      <c r="M81" s="1">
+        <v>43985</v>
+      </c>
+      <c r="N81" s="2">
+        <v>58035</v>
+      </c>
+      <c r="O81" s="2">
+        <v>5570</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>43985</v>
+      </c>
+      <c r="R81" s="2">
+        <v>73405</v>
+      </c>
+      <c r="S81" s="2">
+        <v>5742</v>
+      </c>
+      <c r="U81" s="1">
+        <v>43985</v>
+      </c>
+      <c r="V81" s="2">
+        <v>117687</v>
+      </c>
+      <c r="W81" s="2">
+        <v>4361</v>
+      </c>
+      <c r="Z81" s="2"/>
+    </row>
     <row r="82" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="A82" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B82" s="5">
+        <v>365133</v>
+      </c>
+      <c r="C82" s="5">
+        <v>24133</v>
+      </c>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="E82" s="1">
+        <v>43986</v>
+      </c>
+      <c r="F82" s="5">
+        <v>162530</v>
+      </c>
+      <c r="G82" s="5">
+        <v>11970</v>
+      </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+      <c r="I82" s="1">
+        <v>43986</v>
+      </c>
+      <c r="J82" s="5">
+        <v>102063</v>
+      </c>
+      <c r="K82" s="5">
+        <v>7201</v>
+      </c>
       <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
+      <c r="M82" s="1">
+        <v>43986</v>
+      </c>
+      <c r="N82" s="5">
+        <v>58241</v>
+      </c>
+      <c r="O82" s="5">
+        <v>5595</v>
+      </c>
       <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
+      <c r="Q82" s="1">
+        <v>43986</v>
+      </c>
+      <c r="R82" s="5">
+        <v>73942</v>
+      </c>
+      <c r="S82" s="5">
+        <v>5817</v>
+      </c>
       <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
+      <c r="U82" s="1">
+        <v>43986</v>
+      </c>
+      <c r="V82" s="5">
+        <v>119807</v>
+      </c>
+      <c r="W82" s="5">
+        <v>4422</v>
+      </c>
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
+      <c r="Z82" s="2"/>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
@@ -5125,6 +5274,7 @@
       <c r="BE82" s="1"/>
     </row>
     <row r="83" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="Z83" s="2"/>
       <c r="AK83" s="5"/>
       <c r="AL83" s="5"/>
       <c r="AM83" s="5"/>
@@ -5142,6 +5292,12 @@
       <c r="BA83" s="5"/>
       <c r="BB83" s="5"/>
       <c r="BC83" s="5"/>
+    </row>
+    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="Z84" s="2"/>
+    </row>
+    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="Z85" s="2"/>
     </row>
     <row r="87" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA29FF01-A9D3-5345-BF46-C01D8CE8BB19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA120DCB-810B-014F-9489-544A8FD02178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="14040" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P63" zoomScale="110" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="V82" sqref="V82"/>
+    <sheetView tabSelected="1" topLeftCell="N55" zoomScale="93" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="V83" sqref="V83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5183,7 +5183,7 @@
         <v>43986</v>
       </c>
       <c r="B82" s="5">
-        <v>365133</v>
+        <v>375133</v>
       </c>
       <c r="C82" s="5">
         <v>24133</v>
@@ -5274,6 +5274,60 @@
       <c r="BE82" s="1"/>
     </row>
     <row r="83" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B83" s="5">
+        <v>376208</v>
+      </c>
+      <c r="C83">
+        <v>24175</v>
+      </c>
+      <c r="E83" s="1">
+        <v>43987</v>
+      </c>
+      <c r="F83" s="2">
+        <v>163336</v>
+      </c>
+      <c r="G83" s="2">
+        <v>12049</v>
+      </c>
+      <c r="I83" s="1">
+        <v>43987</v>
+      </c>
+      <c r="J83" s="2">
+        <v>102557</v>
+      </c>
+      <c r="K83" s="2">
+        <v>7235</v>
+      </c>
+      <c r="M83" s="1">
+        <v>43987</v>
+      </c>
+      <c r="N83" s="2">
+        <v>58525</v>
+      </c>
+      <c r="O83" s="2">
+        <v>5616</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>43987</v>
+      </c>
+      <c r="R83" s="2">
+        <v>74385</v>
+      </c>
+      <c r="S83" s="2">
+        <v>5886</v>
+      </c>
+      <c r="U83" s="1">
+        <v>43987</v>
+      </c>
+      <c r="V83" s="2">
+        <v>122901</v>
+      </c>
+      <c r="W83" s="2">
+        <v>4485</v>
+      </c>
       <c r="Z83" s="2"/>
       <c r="AK83" s="5"/>
       <c r="AL83" s="5"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA120DCB-810B-014F-9489-544A8FD02178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AB74B0-159F-284D-A2FB-A443F779107A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="15920" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N55" zoomScale="93" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="V83" sqref="V83"/>
+    <sheetView tabSelected="1" topLeftCell="P67" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V89" sqref="V89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5348,34 +5348,235 @@
       <c r="BC83" s="5"/>
     </row>
     <row r="84" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B84" s="5">
+        <v>377316</v>
+      </c>
+      <c r="C84" s="5">
+        <v>24212</v>
+      </c>
+      <c r="E84" s="1">
+        <v>43988</v>
+      </c>
+      <c r="F84" s="2">
+        <v>163893</v>
+      </c>
+      <c r="G84" s="2">
+        <v>12106</v>
+      </c>
+      <c r="I84" s="1">
+        <v>43988</v>
+      </c>
+      <c r="J84" s="2">
+        <v>103132</v>
+      </c>
+      <c r="K84" s="2">
+        <v>7289</v>
+      </c>
+      <c r="M84" s="1">
+        <v>43988</v>
+      </c>
+      <c r="N84" s="2">
+        <v>58749</v>
+      </c>
+      <c r="O84" s="2">
+        <v>5652</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>43988</v>
+      </c>
+      <c r="R84" s="2">
+        <v>75086</v>
+      </c>
+      <c r="S84" s="2">
+        <v>5931</v>
+      </c>
+      <c r="U84" s="1">
+        <v>43988</v>
+      </c>
+      <c r="V84" s="2">
+        <v>126016</v>
+      </c>
+      <c r="W84" s="2">
+        <v>4559</v>
+      </c>
       <c r="Z84" s="2"/>
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B85" s="5">
+        <v>378097</v>
+      </c>
+      <c r="C85">
+        <v>24259</v>
+      </c>
+      <c r="E85" s="1">
+        <v>43989</v>
+      </c>
+      <c r="F85" s="2">
+        <v>164164</v>
+      </c>
+      <c r="G85" s="2">
+        <v>12176</v>
+      </c>
+      <c r="I85" s="1">
+        <v>43989</v>
+      </c>
+      <c r="J85" s="2">
+        <v>103436</v>
+      </c>
+      <c r="K85" s="2">
+        <v>7316</v>
+      </c>
+      <c r="M85" s="1">
+        <v>43989</v>
+      </c>
+      <c r="N85" s="2">
+        <v>58870</v>
+      </c>
+      <c r="O85" s="2">
+        <v>5656</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>43989</v>
+      </c>
+      <c r="R85" s="2">
+        <v>75592</v>
+      </c>
+      <c r="S85" s="2">
+        <v>5943</v>
+      </c>
+      <c r="U85" s="1">
+        <v>43989</v>
+      </c>
+      <c r="V85" s="2">
+        <v>128812</v>
+      </c>
+      <c r="W85" s="2">
+        <v>4626</v>
+      </c>
       <c r="Z85" s="2"/>
     </row>
+    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B86" s="5">
+        <v>378799</v>
+      </c>
+      <c r="C86" s="5">
+        <v>24299</v>
+      </c>
+      <c r="E86" s="1">
+        <v>43990</v>
+      </c>
+      <c r="F86" s="2">
+        <v>164497</v>
+      </c>
+      <c r="G86" s="2">
+        <v>12214</v>
+      </c>
+      <c r="I86" s="1">
+        <v>43990</v>
+      </c>
+      <c r="J86" s="2">
+        <v>103626</v>
+      </c>
+      <c r="K86" s="2">
+        <v>7353</v>
+      </c>
+      <c r="M86" s="1">
+        <v>43990</v>
+      </c>
+      <c r="N86" s="2">
+        <v>58999</v>
+      </c>
+      <c r="O86" s="2">
+        <v>5673</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>43990</v>
+      </c>
+      <c r="R86" s="2">
+        <v>75943</v>
+      </c>
+      <c r="S86" s="2">
+        <v>5953</v>
+      </c>
+      <c r="U86" s="1">
+        <v>43990</v>
+      </c>
+      <c r="V86" s="2">
+        <v>131319</v>
+      </c>
+      <c r="W86" s="2">
+        <v>4653</v>
+      </c>
+    </row>
     <row r="87" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="A87" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B87" s="5">
+        <v>379482</v>
+      </c>
+      <c r="C87" s="5">
+        <v>24348</v>
+      </c>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="E87" s="1">
+        <v>43991</v>
+      </c>
+      <c r="F87" s="5">
+        <v>164796</v>
+      </c>
+      <c r="G87" s="5">
+        <v>12303</v>
+      </c>
       <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
+      <c r="I87" s="1">
+        <v>43991</v>
+      </c>
+      <c r="J87" s="5">
+        <v>103889</v>
+      </c>
+      <c r="K87" s="5">
+        <v>7408</v>
+      </c>
       <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
+      <c r="M87" s="1">
+        <v>43991</v>
+      </c>
+      <c r="N87" s="5">
+        <v>59107</v>
+      </c>
+      <c r="O87" s="5">
+        <v>5698</v>
+      </c>
       <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
+      <c r="Q87" s="1">
+        <v>43991</v>
+      </c>
+      <c r="R87" s="5">
+        <v>74298</v>
+      </c>
+      <c r="S87" s="5">
+        <v>6014</v>
+      </c>
       <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
+      <c r="U87" s="1">
+        <v>43991</v>
+      </c>
+      <c r="V87" s="5">
+        <v>133489</v>
+      </c>
+      <c r="W87" s="5">
+        <v>4697</v>
+      </c>
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
@@ -5409,6 +5610,118 @@
       <c r="BB87" s="1"/>
       <c r="BC87" s="1"/>
       <c r="BD87" s="1"/>
+    </row>
+    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B88" s="5">
+        <v>380156</v>
+      </c>
+      <c r="C88" s="5">
+        <v>24404</v>
+      </c>
+      <c r="E88" s="1">
+        <v>43992</v>
+      </c>
+      <c r="F88" s="2">
+        <v>165346</v>
+      </c>
+      <c r="G88" s="2">
+        <v>12377</v>
+      </c>
+      <c r="I88" s="1">
+        <v>43992</v>
+      </c>
+      <c r="J88" s="2">
+        <v>104156</v>
+      </c>
+      <c r="K88" s="2">
+        <v>7454</v>
+      </c>
+      <c r="M88" s="1">
+        <v>43992</v>
+      </c>
+      <c r="N88" s="2">
+        <v>59278</v>
+      </c>
+      <c r="O88" s="2">
+        <v>5711</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>43992</v>
+      </c>
+      <c r="R88" s="2">
+        <v>76846</v>
+      </c>
+      <c r="S88" s="2">
+        <v>6062</v>
+      </c>
+      <c r="U88" s="1">
+        <v>43992</v>
+      </c>
+      <c r="V88" s="2">
+        <v>136191</v>
+      </c>
+      <c r="W88" s="2">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B89" s="5">
+        <v>380892</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2442</v>
+      </c>
+      <c r="E89" s="1">
+        <v>43993</v>
+      </c>
+      <c r="F89" s="2">
+        <v>165816</v>
+      </c>
+      <c r="G89" s="2">
+        <v>12443</v>
+      </c>
+      <c r="I89" s="1">
+        <v>43993</v>
+      </c>
+      <c r="J89" s="2">
+        <v>104667</v>
+      </c>
+      <c r="K89" s="2">
+        <v>7492</v>
+      </c>
+      <c r="M89" s="1">
+        <v>43993</v>
+      </c>
+      <c r="N89" s="2">
+        <v>59496</v>
+      </c>
+      <c r="O89" s="2">
+        <v>5737</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>43993</v>
+      </c>
+      <c r="R89" s="2">
+        <v>77313</v>
+      </c>
+      <c r="S89" s="2">
+        <v>6113</v>
+      </c>
+      <c r="U89" s="1">
+        <v>43993</v>
+      </c>
+      <c r="V89" s="2">
+        <v>139281</v>
+      </c>
+      <c r="W89" s="2">
+        <v>4881</v>
+      </c>
     </row>
     <row r="91" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AB74B0-159F-284D-A2FB-A443F779107A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F71F20E-7519-294A-A6FF-7B2B3D05AA32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="15180" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P67" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V89" sqref="V89"/>
+    <sheetView tabSelected="1" topLeftCell="O66" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V91" sqref="V91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5723,30 +5723,122 @@
         <v>4881</v>
       </c>
     </row>
+    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B90" s="5">
+        <v>381714</v>
+      </c>
+      <c r="C90" s="5">
+        <v>24495</v>
+      </c>
+      <c r="E90" s="1">
+        <v>43994</v>
+      </c>
+      <c r="F90" s="2">
+        <v>166164</v>
+      </c>
+      <c r="G90" s="2">
+        <v>12489</v>
+      </c>
+      <c r="I90" s="1">
+        <v>43994</v>
+      </c>
+      <c r="J90" s="2">
+        <v>105059</v>
+      </c>
+      <c r="K90" s="2">
+        <v>7538</v>
+      </c>
+      <c r="M90" s="1">
+        <v>43994</v>
+      </c>
+      <c r="N90" s="2">
+        <v>59621</v>
+      </c>
+      <c r="O90" s="2">
+        <v>5745</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>43994</v>
+      </c>
+      <c r="R90" s="2">
+        <v>77999</v>
+      </c>
+      <c r="S90" s="2">
+        <v>6162</v>
+      </c>
+      <c r="U90" s="1">
+        <v>43994</v>
+      </c>
+      <c r="V90" s="2">
+        <v>141983</v>
+      </c>
+      <c r="W90" s="2">
+        <v>4943</v>
+      </c>
+    </row>
     <row r="91" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="A91" s="3">
+        <v>43995</v>
+      </c>
+      <c r="B91" s="2">
+        <v>382630</v>
+      </c>
+      <c r="C91" s="2">
+        <v>24527</v>
+      </c>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="E91" s="3">
+        <v>43995</v>
+      </c>
+      <c r="F91" s="2">
+        <v>166605</v>
+      </c>
+      <c r="G91" s="2">
+        <v>12589</v>
+      </c>
       <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
+      <c r="I91" s="3">
+        <v>43995</v>
+      </c>
+      <c r="J91" s="2">
+        <v>105395</v>
+      </c>
+      <c r="K91" s="2">
+        <v>7576</v>
+      </c>
       <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+      <c r="M91" s="3">
+        <v>43995</v>
+      </c>
+      <c r="N91" s="2">
+        <v>59801</v>
+      </c>
+      <c r="O91" s="2">
+        <v>5767</v>
+      </c>
       <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
+      <c r="Q91" s="3">
+        <v>43995</v>
+      </c>
+      <c r="R91" s="2">
+        <v>78462</v>
+      </c>
+      <c r="S91" s="2">
+        <v>6211</v>
+      </c>
       <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
+      <c r="U91" s="3">
+        <v>43995</v>
+      </c>
+      <c r="V91" s="2">
+        <v>145643</v>
+      </c>
+      <c r="W91" s="2">
+        <v>4989</v>
+      </c>
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F71F20E-7519-294A-A6FF-7B2B3D05AA32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEFDD25-4A31-E341-9C92-7F566E88BB0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="14560" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O66" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V91" sqref="V91"/>
+    <sheetView tabSelected="1" topLeftCell="O74" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V96" sqref="V96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5848,29 +5848,65 @@
       <c r="AD91" s="2"/>
     </row>
     <row r="92" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="3">
+        <v>43996</v>
+      </c>
+      <c r="B92" s="6">
+        <v>383324</v>
+      </c>
+      <c r="C92" s="6">
+        <v>24551</v>
+      </c>
       <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
+      <c r="E92" s="3">
+        <v>43996</v>
+      </c>
+      <c r="F92" s="6">
+        <v>166881</v>
+      </c>
+      <c r="G92" s="6">
+        <v>12625</v>
+      </c>
       <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
+      <c r="I92" s="3">
+        <v>43996</v>
+      </c>
+      <c r="J92" s="6">
+        <v>105603</v>
+      </c>
+      <c r="K92" s="6">
+        <v>7624</v>
+      </c>
       <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
+      <c r="M92" s="3">
+        <v>43996</v>
+      </c>
+      <c r="N92" s="6">
+        <v>59990</v>
+      </c>
+      <c r="O92" s="6">
+        <v>5770</v>
+      </c>
       <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="3"/>
+      <c r="Q92" s="3">
+        <v>43996</v>
+      </c>
+      <c r="R92" s="6">
+        <v>78798</v>
+      </c>
+      <c r="S92" s="6">
+        <v>6215</v>
+      </c>
       <c r="T92" s="3"/>
-      <c r="U92" s="3"/>
-      <c r="V92" s="3"/>
-      <c r="W92" s="3"/>
+      <c r="U92" s="3">
+        <v>43996</v>
+      </c>
+      <c r="V92" s="6">
+        <v>148855</v>
+      </c>
+      <c r="W92" s="6">
+        <v>5063</v>
+      </c>
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
@@ -5906,29 +5942,65 @@
       <c r="BD92" s="1"/>
     </row>
     <row r="93" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="A93" s="3">
+        <v>43997</v>
+      </c>
+      <c r="B93" s="2">
+        <v>383944</v>
+      </c>
+      <c r="C93" s="2">
+        <v>24579</v>
+      </c>
       <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="E93" s="3">
+        <v>43997</v>
+      </c>
+      <c r="F93" s="2">
+        <v>167103</v>
+      </c>
+      <c r="G93" s="2">
+        <v>12676</v>
+      </c>
       <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
+      <c r="I93" s="3">
+        <v>43997</v>
+      </c>
+      <c r="J93" s="2">
+        <v>105690</v>
+      </c>
+      <c r="K93" s="2">
+        <v>7647</v>
+      </c>
       <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+      <c r="M93" s="3">
+        <v>43997</v>
+      </c>
+      <c r="N93" s="2">
+        <v>60064</v>
+      </c>
+      <c r="O93" s="2">
+        <v>5772</v>
+      </c>
       <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
+      <c r="Q93" s="3">
+        <v>43997</v>
+      </c>
+      <c r="R93" s="2">
+        <v>79121</v>
+      </c>
+      <c r="S93" s="2">
+        <v>6243</v>
+      </c>
       <c r="T93" s="2"/>
-      <c r="U93" s="2"/>
-      <c r="V93" s="2"/>
-      <c r="W93" s="2"/>
+      <c r="U93" s="3">
+        <v>43997</v>
+      </c>
+      <c r="V93" s="2">
+        <v>151452</v>
+      </c>
+      <c r="W93" s="2">
+        <v>5089</v>
+      </c>
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
@@ -5938,28 +6010,65 @@
       <c r="AD93" s="2"/>
     </row>
     <row r="94" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="A94" s="3">
+        <v>43998</v>
+      </c>
+      <c r="B94" s="2">
+        <v>384575</v>
+      </c>
+      <c r="C94" s="2">
+        <v>24608</v>
+      </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="E94" s="3">
+        <v>43998</v>
+      </c>
+      <c r="F94" s="2">
+        <v>167426</v>
+      </c>
+      <c r="G94" s="2">
+        <v>12727</v>
+      </c>
       <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
+      <c r="I94" s="3">
+        <v>43998</v>
+      </c>
+      <c r="J94" s="2">
+        <v>105885</v>
+      </c>
+      <c r="K94" s="2">
+        <v>7665</v>
+      </c>
       <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+      <c r="M94" s="3">
+        <v>43998</v>
+      </c>
+      <c r="N94" s="2">
+        <v>60189</v>
+      </c>
+      <c r="O94" s="2">
+        <v>5790</v>
+      </c>
       <c r="P94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
+      <c r="Q94" s="1">
+        <v>43998</v>
+      </c>
+      <c r="R94" s="2">
+        <v>79483</v>
+      </c>
+      <c r="S94" s="2">
+        <v>6276</v>
+      </c>
       <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
+      <c r="U94" s="3">
+        <v>43998</v>
+      </c>
+      <c r="V94" s="2">
+        <v>153560</v>
+      </c>
+      <c r="W94" s="2">
+        <v>5121</v>
+      </c>
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
@@ -5968,8 +6077,117 @@
       <c r="AC94" s="2"/>
       <c r="AD94" s="2"/>
     </row>
+    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B95" s="2">
+        <v>385142</v>
+      </c>
+      <c r="C95" s="2">
+        <v>24629</v>
+      </c>
+      <c r="E95" s="1">
+        <v>43999</v>
+      </c>
+      <c r="F95" s="2">
+        <v>167703</v>
+      </c>
+      <c r="G95" s="2">
+        <v>12769</v>
+      </c>
+      <c r="I95" s="1">
+        <v>43999</v>
+      </c>
+      <c r="J95" s="2">
+        <v>106151</v>
+      </c>
+      <c r="K95" s="2">
+        <v>7734</v>
+      </c>
+      <c r="M95" s="1">
+        <v>43999</v>
+      </c>
+      <c r="N95" s="2">
+        <v>60393</v>
+      </c>
+      <c r="O95" s="2">
+        <v>5792</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>43999</v>
+      </c>
+      <c r="R95" s="2">
+        <v>79818</v>
+      </c>
+      <c r="S95" s="2">
+        <v>6319</v>
+      </c>
+      <c r="U95" s="1">
+        <v>43999</v>
+      </c>
+      <c r="V95" s="2">
+        <v>157015</v>
+      </c>
+      <c r="W95" s="2">
+        <v>5208</v>
+      </c>
+    </row>
     <row r="96" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3">
+        <v>44000</v>
+      </c>
+      <c r="B96" s="2">
+        <v>385760</v>
+      </c>
+      <c r="C96" s="2">
+        <v>24661</v>
+      </c>
+      <c r="E96" s="1">
+        <v>44000</v>
+      </c>
+      <c r="F96" s="2">
+        <v>168107</v>
+      </c>
+      <c r="G96" s="2">
+        <v>12800</v>
+      </c>
+      <c r="I96" s="1">
+        <v>44000</v>
+      </c>
+      <c r="J96" s="2">
+        <v>106422</v>
+      </c>
+      <c r="K96" s="2">
+        <v>7770</v>
+      </c>
+      <c r="M96" s="1">
+        <v>44000</v>
+      </c>
+      <c r="N96" s="2">
+        <v>60618</v>
+      </c>
+      <c r="O96" s="2">
+        <v>5818</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>44000</v>
+      </c>
+      <c r="R96" s="2">
+        <v>80236</v>
+      </c>
+      <c r="S96" s="2">
+        <v>6361</v>
+      </c>
+      <c r="U96" s="1">
+        <v>44000</v>
+      </c>
+      <c r="V96" s="2">
+        <v>161099</v>
+      </c>
+      <c r="W96" s="2">
+        <v>5290</v>
+      </c>
     </row>
     <row r="97" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B97" s="3"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEFDD25-4A31-E341-9C92-7F566E88BB0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA5B357-2342-CD46-A4EC-853681F1CEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14560" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O74" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V96" sqref="V96"/>
+    <sheetView tabSelected="1" topLeftCell="O76" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V97" sqref="V97:W97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6190,28 +6190,65 @@
       </c>
     </row>
     <row r="97" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="A97" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B97" s="6">
+        <v>386556</v>
+      </c>
+      <c r="C97" s="6">
+        <v>24686</v>
+      </c>
       <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+      <c r="E97" s="3">
+        <v>44001</v>
+      </c>
+      <c r="F97" s="6">
+        <v>168496</v>
+      </c>
+      <c r="G97" s="6">
+        <v>12835</v>
+      </c>
       <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
+      <c r="I97" s="3">
+        <v>44001</v>
+      </c>
+      <c r="J97" s="6">
+        <v>106650</v>
+      </c>
+      <c r="K97" s="6">
+        <v>7800</v>
+      </c>
       <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
+      <c r="M97" s="3">
+        <v>44001</v>
+      </c>
+      <c r="N97" s="6">
+        <v>60829</v>
+      </c>
+      <c r="O97" s="6">
+        <v>5823</v>
+      </c>
       <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
+      <c r="Q97" s="3">
+        <v>44001</v>
+      </c>
+      <c r="R97" s="6">
+        <v>80762</v>
+      </c>
+      <c r="S97" s="6">
+        <v>6399</v>
+      </c>
       <c r="T97" s="3"/>
-      <c r="U97" s="3"/>
-      <c r="V97" s="3"/>
-      <c r="W97" s="3"/>
+      <c r="U97" s="3">
+        <v>44001</v>
+      </c>
+      <c r="V97" s="6">
+        <v>165416</v>
+      </c>
+      <c r="W97" s="6">
+        <v>5360</v>
+      </c>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA5B357-2342-CD46-A4EC-853681F1CEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBA9072-4643-BE40-A236-24BCC3B9BEC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="15000" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O76" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V97" sqref="V97:W97"/>
+    <sheetView tabSelected="1" topLeftCell="O85" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="X98" sqref="X98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6284,7 +6284,60 @@
       <c r="BD97" s="1"/>
     </row>
     <row r="98" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3">
+        <v>44002</v>
+      </c>
+      <c r="B98" s="2">
+        <v>387272</v>
+      </c>
+      <c r="C98" s="2">
+        <v>24710</v>
+      </c>
+      <c r="E98" s="1">
+        <v>44002</v>
+      </c>
+      <c r="F98" s="2">
+        <v>168834</v>
+      </c>
+      <c r="G98" s="2">
+        <v>12857</v>
+      </c>
+      <c r="I98" s="1">
+        <v>44002</v>
+      </c>
+      <c r="J98" s="2">
+        <v>106936</v>
+      </c>
+      <c r="K98" s="2">
+        <v>7828</v>
+      </c>
+      <c r="M98" s="1">
+        <v>44002</v>
+      </c>
+      <c r="N98" s="2">
+        <v>61084</v>
+      </c>
+      <c r="O98" s="2">
+        <v>5843</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>44002</v>
+      </c>
+      <c r="R98" s="2">
+        <v>81266</v>
+      </c>
+      <c r="S98" s="2">
+        <v>6419</v>
+      </c>
+      <c r="U98" s="1">
+        <v>44002</v>
+      </c>
+      <c r="V98" s="2">
+        <v>169309</v>
+      </c>
+      <c r="W98" s="2">
+        <v>5424</v>
+      </c>
     </row>
     <row r="99" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBA9072-4643-BE40-A236-24BCC3B9BEC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D413435E-3F52-1D41-BC21-217116E1A2A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="17240" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O85" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="X98" sqref="X98"/>
+    <sheetView tabSelected="1" topLeftCell="Q82" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="S87" sqref="S87:S88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6340,26 +6340,120 @@
       </c>
     </row>
     <row r="99" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
+      <c r="A99" s="3">
+        <v>44003</v>
+      </c>
+      <c r="B99" s="2">
+        <v>387936</v>
+      </c>
+      <c r="C99" s="2">
+        <v>24725</v>
+      </c>
+      <c r="E99" s="1">
+        <v>44003</v>
+      </c>
+      <c r="F99" s="2">
+        <v>169142</v>
+      </c>
+      <c r="G99" s="2">
+        <v>12870</v>
+      </c>
+      <c r="I99" s="1">
+        <v>44003</v>
+      </c>
+      <c r="J99" s="2">
+        <v>107061</v>
+      </c>
+      <c r="K99" s="2">
+        <v>7858</v>
+      </c>
+      <c r="M99" s="1">
+        <v>44003</v>
+      </c>
+      <c r="N99" s="2">
+        <v>71230</v>
+      </c>
+      <c r="O99" s="2">
+        <v>5846</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>44003</v>
+      </c>
+      <c r="R99" s="2">
+        <v>81266</v>
+      </c>
+      <c r="S99" s="2">
+        <v>6423</v>
+      </c>
+      <c r="U99" s="1">
+        <v>44003</v>
+      </c>
+      <c r="V99" s="2">
+        <v>173824</v>
+      </c>
+      <c r="W99" s="2">
+        <v>5495</v>
+      </c>
     </row>
     <row r="100" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="G100" s="3"/>
+      <c r="A100" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B100" s="2">
+        <v>388488</v>
+      </c>
+      <c r="C100" s="2">
+        <v>24739</v>
+      </c>
+      <c r="E100" s="1">
+        <v>44004</v>
+      </c>
+      <c r="F100" s="2">
+        <v>169415</v>
+      </c>
+      <c r="G100" s="6">
+        <v>12895</v>
+      </c>
       <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
+      <c r="I100" s="3">
+        <v>44004</v>
+      </c>
+      <c r="J100" s="6">
+        <v>107210</v>
+      </c>
+      <c r="K100" s="6">
+        <v>7874</v>
+      </c>
       <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
+      <c r="M100" s="3">
+        <v>44004</v>
+      </c>
+      <c r="N100" s="6">
+        <v>61409</v>
+      </c>
+      <c r="O100" s="6">
+        <v>5853</v>
+      </c>
       <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
+      <c r="Q100" s="3">
+        <v>44004</v>
+      </c>
+      <c r="R100" s="6">
+        <v>82186</v>
+      </c>
+      <c r="S100" s="6">
+        <v>6426</v>
+      </c>
       <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
-      <c r="W100" s="3"/>
+      <c r="U100" s="3">
+        <v>44004</v>
+      </c>
+      <c r="V100" s="3">
+        <v>178054</v>
+      </c>
+      <c r="W100" s="3">
+        <v>5515</v>
+      </c>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
@@ -6377,29 +6471,65 @@
       <c r="AL100" s="1"/>
     </row>
     <row r="101" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="A101" s="3">
+        <v>44005</v>
+      </c>
+      <c r="B101" s="2">
+        <v>389085</v>
+      </c>
+      <c r="C101" s="2">
+        <v>24766</v>
+      </c>
       <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
+      <c r="E101" s="3">
+        <v>44005</v>
+      </c>
+      <c r="F101" s="2">
+        <v>169734</v>
+      </c>
+      <c r="G101" s="2">
+        <v>12949</v>
+      </c>
       <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
+      <c r="I101" s="3">
+        <v>44005</v>
+      </c>
+      <c r="J101" s="2">
+        <v>107439</v>
+      </c>
+      <c r="K101" s="2">
+        <v>7890</v>
+      </c>
       <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+      <c r="M101" s="3">
+        <v>44005</v>
+      </c>
+      <c r="N101" s="2">
+        <v>61630</v>
+      </c>
+      <c r="O101" s="2">
+        <v>5864</v>
+      </c>
       <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
+      <c r="Q101" s="3">
+        <v>44005</v>
+      </c>
+      <c r="R101" s="2">
+        <v>82696</v>
+      </c>
+      <c r="S101" s="2">
+        <v>6464</v>
+      </c>
       <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
-      <c r="V101" s="2"/>
-      <c r="W101" s="2"/>
+      <c r="U101" s="3">
+        <v>44005</v>
+      </c>
+      <c r="V101" s="2">
+        <v>183073</v>
+      </c>
+      <c r="W101" s="2">
+        <v>5580</v>
+      </c>
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
@@ -6409,29 +6539,65 @@
       <c r="AD101" s="2"/>
     </row>
     <row r="102" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="A102" s="3">
+        <v>44006</v>
+      </c>
+      <c r="B102" s="6">
+        <v>389666</v>
+      </c>
+      <c r="C102" s="6">
+        <v>24782</v>
+      </c>
       <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
+      <c r="E102" s="3">
+        <v>44006</v>
+      </c>
+      <c r="F102" s="6">
+        <v>169892</v>
+      </c>
+      <c r="G102" s="6">
+        <v>12995</v>
+      </c>
       <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
+      <c r="I102" s="3">
+        <v>44006</v>
+      </c>
+      <c r="J102" s="6">
+        <v>107611</v>
+      </c>
+      <c r="K102" s="6">
+        <v>7938</v>
+      </c>
       <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
+      <c r="M102" s="3">
+        <v>44006</v>
+      </c>
+      <c r="N102" s="6">
+        <v>61953</v>
+      </c>
+      <c r="O102" s="6">
+        <v>5868</v>
+      </c>
       <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
+      <c r="Q102" s="3">
+        <v>44006</v>
+      </c>
+      <c r="R102" s="6">
+        <v>83191</v>
+      </c>
+      <c r="S102" s="6">
+        <v>6518</v>
+      </c>
       <c r="T102" s="3"/>
-      <c r="U102" s="3"/>
-      <c r="V102" s="3"/>
-      <c r="W102" s="3"/>
+      <c r="U102" s="3">
+        <v>44006</v>
+      </c>
+      <c r="V102" s="6">
+        <v>190222</v>
+      </c>
+      <c r="W102" s="6">
+        <v>5632</v>
+      </c>
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D413435E-3F52-1D41-BC21-217116E1A2A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3762A36-16DC-284A-ABDA-AF8312E86409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17240" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="16340" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q82" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="S87" sqref="S87:S88"/>
+    <sheetView tabSelected="1" topLeftCell="O89" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V103" sqref="V103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6633,29 +6633,65 @@
       <c r="BD102" s="1"/>
     </row>
     <row r="103" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="A103" s="3">
+        <v>44007</v>
+      </c>
+      <c r="B103" s="2">
+        <v>3619594</v>
+      </c>
+      <c r="C103" s="2">
+        <v>24800</v>
+      </c>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
+      <c r="E103" s="3">
+        <v>44007</v>
+      </c>
+      <c r="F103" s="2">
+        <v>170196</v>
+      </c>
+      <c r="G103" s="2">
+        <v>13018</v>
+      </c>
       <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
+      <c r="I103" s="3">
+        <v>44007</v>
+      </c>
+      <c r="J103" s="2">
+        <v>107837</v>
+      </c>
+      <c r="K103" s="2">
+        <v>7963</v>
+      </c>
       <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
+      <c r="M103" s="3">
+        <v>44007</v>
+      </c>
+      <c r="N103" s="2">
+        <v>62306</v>
+      </c>
+      <c r="O103" s="2">
+        <v>5887</v>
+      </c>
       <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
+      <c r="Q103" s="3">
+        <v>44007</v>
+      </c>
+      <c r="R103" s="2">
+        <v>83770</v>
+      </c>
+      <c r="S103" s="2">
+        <v>6557</v>
+      </c>
       <c r="T103" s="2"/>
-      <c r="U103" s="2"/>
-      <c r="V103" s="2"/>
-      <c r="W103" s="2"/>
+      <c r="U103" s="3">
+        <v>44007</v>
+      </c>
+      <c r="V103" s="2">
+        <v>195571</v>
+      </c>
+      <c r="W103" s="2">
+        <v>5733</v>
+      </c>
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3762A36-16DC-284A-ABDA-AF8312E86409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A85327-32CB-1D47-9CF4-06D2CD7AA22E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16340" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="16380" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O89" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V103" sqref="V103"/>
+    <sheetView tabSelected="1" topLeftCell="P84" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="X105" sqref="X105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6701,28 +6701,64 @@
       <c r="AD103" s="2"/>
     </row>
     <row r="104" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="A104" s="3">
+        <v>44008</v>
+      </c>
+      <c r="B104" s="2">
+        <v>391220</v>
+      </c>
+      <c r="C104" s="2">
+        <v>24814</v>
+      </c>
       <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
+      <c r="E104" s="3">
+        <v>44008</v>
+      </c>
+      <c r="F104" s="2">
+        <v>170584</v>
+      </c>
+      <c r="G104" s="2">
+        <v>13060</v>
+      </c>
       <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
+      <c r="I104" s="3">
+        <v>44008</v>
+      </c>
+      <c r="J104" s="2">
+        <v>108070</v>
+      </c>
+      <c r="K104" s="2">
+        <v>8013</v>
+      </c>
       <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
+      <c r="M104" s="3">
+        <v>44008</v>
+      </c>
+      <c r="N104" s="2">
+        <v>62695</v>
+      </c>
+      <c r="O104" s="2">
+        <v>5888</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>44008</v>
+      </c>
+      <c r="R104" s="2">
+        <v>84370</v>
+      </c>
+      <c r="S104" s="2">
+        <v>6579</v>
+      </c>
       <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
-      <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
+      <c r="U104" s="3">
+        <v>44008</v>
+      </c>
+      <c r="V104" s="2">
+        <v>200461</v>
+      </c>
+      <c r="W104" s="2">
+        <v>5812</v>
+      </c>
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
@@ -6730,6 +6766,62 @@
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
       <c r="AD104" s="2"/>
+    </row>
+    <row r="105" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B105" s="2">
+        <v>391923</v>
+      </c>
+      <c r="C105" s="2">
+        <v>24830</v>
+      </c>
+      <c r="E105" s="1">
+        <v>44009</v>
+      </c>
+      <c r="F105" s="2">
+        <v>170873</v>
+      </c>
+      <c r="G105" s="2">
+        <v>13094</v>
+      </c>
+      <c r="I105" s="1">
+        <v>44009</v>
+      </c>
+      <c r="J105" s="2">
+        <v>108443</v>
+      </c>
+      <c r="K105" s="2">
+        <v>8041</v>
+      </c>
+      <c r="M105" s="1">
+        <v>44009</v>
+      </c>
+      <c r="N105" s="2">
+        <v>63009</v>
+      </c>
+      <c r="O105" s="2">
+        <v>5907</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>44009</v>
+      </c>
+      <c r="R105" s="2">
+        <v>84991</v>
+      </c>
+      <c r="S105" s="2">
+        <v>6579</v>
+      </c>
+      <c r="U105" s="1">
+        <v>44009</v>
+      </c>
+      <c r="V105" s="2">
+        <v>206433</v>
+      </c>
+      <c r="W105" s="2">
+        <v>5872</v>
+      </c>
     </row>
     <row r="106" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A85327-32CB-1D47-9CF4-06D2CD7AA22E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBE47ED-6EC3-9940-90E8-ECB4FC665D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16380" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="14840" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P84" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="X105" sqref="X105"/>
+    <sheetView tabSelected="1" topLeftCell="P94" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="X109" sqref="X109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6448,10 +6448,10 @@
       <c r="U100" s="3">
         <v>44004</v>
       </c>
-      <c r="V100" s="3">
+      <c r="V100" s="6">
         <v>178054</v>
       </c>
-      <c r="W100" s="3">
+      <c r="W100" s="6">
         <v>5515</v>
       </c>
       <c r="X100" s="3"/>
@@ -6824,29 +6824,65 @@
       </c>
     </row>
     <row r="106" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="A106" s="3">
+        <v>44010</v>
+      </c>
+      <c r="B106" s="2">
+        <v>392539</v>
+      </c>
+      <c r="C106" s="2">
+        <v>24835</v>
+      </c>
       <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
+      <c r="E106" s="3">
+        <v>44010</v>
+      </c>
+      <c r="F106" s="2">
+        <v>171182</v>
+      </c>
+      <c r="G106" s="2">
+        <v>13121</v>
+      </c>
       <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
+      <c r="I106" s="3">
+        <v>44010</v>
+      </c>
+      <c r="J106" s="2">
+        <v>108667</v>
+      </c>
+      <c r="K106" s="2">
+        <v>8060</v>
+      </c>
       <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+      <c r="M106" s="3">
+        <v>44010</v>
+      </c>
+      <c r="N106" s="2">
+        <v>63261</v>
+      </c>
+      <c r="O106" s="2">
+        <v>5911</v>
+      </c>
       <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
+      <c r="Q106" s="3">
+        <v>44010</v>
+      </c>
+      <c r="R106" s="2">
+        <v>85496</v>
+      </c>
+      <c r="S106" s="2">
+        <v>6579</v>
+      </c>
       <c r="T106" s="2"/>
-      <c r="U106" s="2"/>
-      <c r="V106" s="2"/>
-      <c r="W106" s="2"/>
+      <c r="U106" s="3">
+        <v>44010</v>
+      </c>
+      <c r="V106" s="2">
+        <v>211243</v>
+      </c>
+      <c r="W106" s="2">
+        <v>5905</v>
+      </c>
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
@@ -6856,29 +6892,65 @@
       <c r="AD106" s="2"/>
     </row>
     <row r="107" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="A107" s="3">
+        <v>44011</v>
+      </c>
+      <c r="B107" s="6">
+        <v>392930</v>
+      </c>
+      <c r="C107" s="6">
+        <v>24842</v>
+      </c>
       <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
+      <c r="E107" s="3">
+        <v>44011</v>
+      </c>
+      <c r="F107" s="6">
+        <v>171272</v>
+      </c>
+      <c r="G107" s="6">
+        <v>13138</v>
+      </c>
       <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
+      <c r="I107" s="3">
+        <v>44011</v>
+      </c>
+      <c r="J107" s="6">
+        <v>108768</v>
+      </c>
+      <c r="K107" s="6">
+        <v>8095</v>
+      </c>
       <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
+      <c r="M107" s="3">
+        <v>44011</v>
+      </c>
+      <c r="N107" s="6">
+        <v>63497</v>
+      </c>
+      <c r="O107" s="6">
+        <v>5915</v>
+      </c>
       <c r="P107" s="3"/>
-      <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
-      <c r="S107" s="3"/>
+      <c r="Q107" s="3">
+        <v>44011</v>
+      </c>
+      <c r="R107" s="6">
+        <v>85988</v>
+      </c>
+      <c r="S107" s="6">
+        <v>6614</v>
+      </c>
       <c r="T107" s="3"/>
-      <c r="U107" s="3"/>
-      <c r="V107" s="3"/>
-      <c r="W107" s="3"/>
+      <c r="U107" s="3">
+        <v>44011</v>
+      </c>
+      <c r="V107" s="6">
+        <v>216550</v>
+      </c>
+      <c r="W107" s="6">
+        <v>5936</v>
+      </c>
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
@@ -6914,29 +6986,65 @@
       <c r="BD107" s="1"/>
     </row>
     <row r="108" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="A108" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B108" s="2">
+        <v>393454</v>
+      </c>
+      <c r="C108" s="2">
+        <v>24855</v>
+      </c>
       <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
+      <c r="E108" s="3">
+        <v>44012</v>
+      </c>
+      <c r="F108" s="2">
+        <v>171667</v>
+      </c>
+      <c r="G108" s="2">
+        <v>13181</v>
+      </c>
       <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
+      <c r="I108" s="3">
+        <v>44012</v>
+      </c>
+      <c r="J108" s="2">
+        <v>108882</v>
+      </c>
+      <c r="K108" s="2">
+        <v>8054</v>
+      </c>
       <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
+      <c r="M108" s="3">
+        <v>44012</v>
+      </c>
+      <c r="N108" s="2">
+        <v>63870</v>
+      </c>
+      <c r="O108" s="2">
+        <v>5947</v>
+      </c>
       <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
+      <c r="Q108" s="3">
+        <v>44012</v>
+      </c>
+      <c r="R108" s="2">
+        <v>86606</v>
+      </c>
+      <c r="S108" s="2">
+        <v>6649</v>
+      </c>
       <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
+      <c r="U108" s="3">
+        <v>44012</v>
+      </c>
+      <c r="V108" s="2">
+        <v>222917</v>
+      </c>
+      <c r="W108" s="2">
+        <v>5980</v>
+      </c>
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
@@ -6946,29 +7054,65 @@
       <c r="AD108" s="2"/>
     </row>
     <row r="109" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="A109" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B109" s="2">
+        <v>394079</v>
+      </c>
+      <c r="C109" s="2">
+        <v>34866</v>
+      </c>
       <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
+      <c r="E109" s="3">
+        <v>44013</v>
+      </c>
+      <c r="F109" s="2">
+        <v>171928</v>
+      </c>
+      <c r="G109" s="2">
+        <v>13224</v>
+      </c>
       <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
+      <c r="I109" s="3">
+        <v>44013</v>
+      </c>
+      <c r="J109" s="2">
+        <v>109143</v>
+      </c>
+      <c r="K109" s="2">
+        <v>8081</v>
+      </c>
       <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
+      <c r="M109" s="3">
+        <v>44013</v>
+      </c>
+      <c r="N109" s="2">
+        <v>64132</v>
+      </c>
+      <c r="O109" s="2">
+        <v>5951</v>
+      </c>
       <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
-      <c r="S109" s="2"/>
+      <c r="Q109" s="3">
+        <v>44013</v>
+      </c>
+      <c r="R109" s="2">
+        <v>87242</v>
+      </c>
+      <c r="S109" s="2">
+        <v>6649</v>
+      </c>
       <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
-      <c r="W109" s="2"/>
+      <c r="U109" s="3">
+        <v>44013</v>
+      </c>
+      <c r="V109" s="2">
+        <v>232657</v>
+      </c>
+      <c r="W109" s="2">
+        <v>6090</v>
+      </c>
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBE47ED-6EC3-9940-90E8-ECB4FC665D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2369AC21-9E77-C94F-8786-924D5E91BE0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14840" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="15380" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P94" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="X109" sqref="X109"/>
+    <sheetView tabSelected="1" topLeftCell="O103" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W112" sqref="W112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7120,6 +7120,118 @@
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
       <c r="AD109" s="2"/>
+    </row>
+    <row r="110" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B110" s="2">
+        <v>394954</v>
+      </c>
+      <c r="C110" s="2">
+        <v>24877</v>
+      </c>
+      <c r="E110" s="1">
+        <v>44014</v>
+      </c>
+      <c r="F110" s="2">
+        <v>172356</v>
+      </c>
+      <c r="G110" s="2">
+        <v>13251</v>
+      </c>
+      <c r="I110" s="1">
+        <v>44014</v>
+      </c>
+      <c r="J110" s="2">
+        <v>109338</v>
+      </c>
+      <c r="K110" s="2">
+        <v>8132</v>
+      </c>
+      <c r="M110" s="1">
+        <v>44014</v>
+      </c>
+      <c r="N110" s="2">
+        <v>64675</v>
+      </c>
+      <c r="O110" s="2">
+        <v>5966</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>44014</v>
+      </c>
+      <c r="R110" s="2">
+        <v>88074</v>
+      </c>
+      <c r="S110" s="2">
+        <v>6712</v>
+      </c>
+      <c r="U110" s="1">
+        <v>44014</v>
+      </c>
+      <c r="V110" s="2">
+        <v>240195</v>
+      </c>
+      <c r="W110" s="2">
+        <v>6163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B111" s="2">
+        <v>395872</v>
+      </c>
+      <c r="C111" s="2">
+        <v>24885</v>
+      </c>
+      <c r="E111" s="1">
+        <v>44015</v>
+      </c>
+      <c r="F111" s="2">
+        <v>172742</v>
+      </c>
+      <c r="G111" s="2">
+        <v>13308</v>
+      </c>
+      <c r="I111" s="1">
+        <v>44015</v>
+      </c>
+      <c r="J111" s="2">
+        <v>109628</v>
+      </c>
+      <c r="K111" s="2">
+        <v>8149</v>
+      </c>
+      <c r="M111" s="1">
+        <v>44015</v>
+      </c>
+      <c r="N111" s="2">
+        <v>65135</v>
+      </c>
+      <c r="O111" s="2">
+        <v>5969</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>44015</v>
+      </c>
+      <c r="R111" s="2">
+        <v>88741</v>
+      </c>
+      <c r="S111" s="2">
+        <v>6746</v>
+      </c>
+      <c r="U111" s="1">
+        <v>44015</v>
+      </c>
+      <c r="V111" s="2">
+        <v>248235</v>
+      </c>
+      <c r="W111" s="2">
+        <v>6263</v>
+      </c>
     </row>
     <row r="127" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B127" s="3"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2369AC21-9E77-C94F-8786-924D5E91BE0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EBCF32-1EA0-564F-8476-4C41522E3AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="14900" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O103" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="W112" sqref="W112"/>
+    <sheetView tabSelected="1" topLeftCell="P101" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W114" sqref="W114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7233,7 +7233,119 @@
         <v>6263</v>
       </c>
     </row>
-    <row r="127" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B112" s="2">
+        <v>396598</v>
+      </c>
+      <c r="C112" s="2">
+        <v>24896</v>
+      </c>
+      <c r="E112" s="1">
+        <v>44016</v>
+      </c>
+      <c r="F112" s="2">
+        <v>173033</v>
+      </c>
+      <c r="G112" s="2">
+        <v>13333</v>
+      </c>
+      <c r="I112" s="1">
+        <v>44016</v>
+      </c>
+      <c r="J112" s="2">
+        <v>109838</v>
+      </c>
+      <c r="K112" s="2">
+        <v>8172</v>
+      </c>
+      <c r="M112" s="1">
+        <v>44016</v>
+      </c>
+      <c r="N112" s="2">
+        <v>65533</v>
+      </c>
+      <c r="O112" s="2">
+        <v>5972</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>44016</v>
+      </c>
+      <c r="R112" s="2">
+        <v>89375</v>
+      </c>
+      <c r="S112" s="2">
+        <v>6749</v>
+      </c>
+      <c r="U112" s="1">
+        <v>44016</v>
+      </c>
+      <c r="V112" s="2">
+        <v>254745</v>
+      </c>
+      <c r="W112" s="2">
+        <v>6313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B113" s="2">
+        <v>397131</v>
+      </c>
+      <c r="C113" s="2">
+        <v>24904</v>
+      </c>
+      <c r="E113" s="1">
+        <v>44017</v>
+      </c>
+      <c r="F113" s="2">
+        <v>173402</v>
+      </c>
+      <c r="G113" s="2">
+        <v>13355</v>
+      </c>
+      <c r="I113" s="1">
+        <v>44017</v>
+      </c>
+      <c r="J113" s="2">
+        <v>109974</v>
+      </c>
+      <c r="K113" s="2">
+        <v>8183</v>
+      </c>
+      <c r="M113" s="1">
+        <v>44017</v>
+      </c>
+      <c r="N113" s="2">
+        <v>65876</v>
+      </c>
+      <c r="O113" s="2">
+        <v>5972</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>44017</v>
+      </c>
+      <c r="R113" s="2">
+        <v>89854</v>
+      </c>
+      <c r="S113" s="2">
+        <v>6753</v>
+      </c>
+      <c r="U113" s="1">
+        <v>44017</v>
+      </c>
+      <c r="V113" s="2">
+        <v>260155</v>
+      </c>
+      <c r="W113" s="2">
+        <v>6331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EBCF32-1EA0-564F-8476-4C41522E3AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268891A0-918B-A146-9652-2B62A0408CF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14900" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="15020" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P101" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="W114" sqref="W114"/>
+    <sheetView tabSelected="1" topLeftCell="N99" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="X114" sqref="X114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7343,6 +7343,62 @@
       </c>
       <c r="W113" s="2">
         <v>6331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B114" s="2">
+        <v>397649</v>
+      </c>
+      <c r="C114" s="2">
+        <v>24913</v>
+      </c>
+      <c r="E114" s="1">
+        <v>44018</v>
+      </c>
+      <c r="F114" s="2">
+        <v>173611</v>
+      </c>
+      <c r="G114" s="2">
+        <v>13373</v>
+      </c>
+      <c r="I114" s="1">
+        <v>44018</v>
+      </c>
+      <c r="J114" s="2">
+        <v>104659</v>
+      </c>
+      <c r="K114" s="2">
+        <v>7983</v>
+      </c>
+      <c r="M114" s="1">
+        <v>44018</v>
+      </c>
+      <c r="N114" s="2">
+        <v>66173</v>
+      </c>
+      <c r="O114" s="2">
+        <v>5975</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>44018</v>
+      </c>
+      <c r="R114" s="2">
+        <v>90304</v>
+      </c>
+      <c r="S114" s="2">
+        <v>6754</v>
+      </c>
+      <c r="U114" s="1">
+        <v>44018</v>
+      </c>
+      <c r="V114" s="2">
+        <v>271684</v>
+      </c>
+      <c r="W114" s="2">
+        <v>6337</v>
       </c>
     </row>
     <row r="127" spans="1:56" x14ac:dyDescent="0.2">

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268891A0-918B-A146-9652-2B62A0408CF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0D7D08-3718-6D4A-8707-A781B50F3D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="14980" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N99" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="X114" sqref="X114"/>
+    <sheetView tabSelected="1" topLeftCell="O101" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W116" sqref="W116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7399,6 +7399,62 @@
       </c>
       <c r="W114" s="2">
         <v>6337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B115" s="2">
+        <v>398237</v>
+      </c>
+      <c r="C115" s="2">
+        <v>24924</v>
+      </c>
+      <c r="E115" s="1">
+        <v>44019</v>
+      </c>
+      <c r="F115" s="2">
+        <v>173878</v>
+      </c>
+      <c r="G115" s="2">
+        <v>13425</v>
+      </c>
+      <c r="I115" s="1">
+        <v>44019</v>
+      </c>
+      <c r="J115" s="2">
+        <v>104799</v>
+      </c>
+      <c r="K115" s="2">
+        <v>7998</v>
+      </c>
+      <c r="M115" s="1">
+        <v>44019</v>
+      </c>
+      <c r="N115" s="2">
+        <v>66627</v>
+      </c>
+      <c r="O115" s="2">
+        <v>6005</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>44019</v>
+      </c>
+      <c r="R115" s="2">
+        <v>91299</v>
+      </c>
+      <c r="S115" s="2">
+        <v>6787</v>
+      </c>
+      <c r="U115" s="1">
+        <v>44019</v>
+      </c>
+      <c r="V115" s="2">
+        <v>277774</v>
+      </c>
+      <c r="W115" s="2">
+        <v>6448</v>
       </c>
     </row>
     <row r="127" spans="1:56" x14ac:dyDescent="0.2">

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0D7D08-3718-6D4A-8707-A781B50F3D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA7185F-5CA8-4D48-8DC6-2523BDD78134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14980" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="14960" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O101" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="W116" sqref="W116"/>
+    <sheetView tabSelected="1" topLeftCell="O102" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W117" sqref="W117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7455,6 +7455,62 @@
       </c>
       <c r="W115" s="2">
         <v>6448</v>
+      </c>
+    </row>
+    <row r="116" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B116" s="2">
+        <v>398929</v>
+      </c>
+      <c r="C116" s="2">
+        <v>24944</v>
+      </c>
+      <c r="E116" s="1">
+        <v>44020</v>
+      </c>
+      <c r="F116" s="2">
+        <v>174039</v>
+      </c>
+      <c r="G116" s="2">
+        <v>13476</v>
+      </c>
+      <c r="I116" s="1">
+        <v>44020</v>
+      </c>
+      <c r="J116" s="2">
+        <v>104961</v>
+      </c>
+      <c r="K116" s="2">
+        <v>8028</v>
+      </c>
+      <c r="M116" s="1">
+        <v>44020</v>
+      </c>
+      <c r="N116" s="2">
+        <v>67237</v>
+      </c>
+      <c r="O116" s="2">
+        <v>6015</v>
+      </c>
+      <c r="Q116" s="1">
+        <v>44020</v>
+      </c>
+      <c r="R116" s="2">
+        <v>92148</v>
+      </c>
+      <c r="S116" s="2">
+        <v>6812</v>
+      </c>
+      <c r="U116" s="1">
+        <v>44020</v>
+      </c>
+      <c r="V116" s="2">
+        <v>289468</v>
+      </c>
+      <c r="W116" s="2">
+        <v>6562</v>
       </c>
     </row>
     <row r="127" spans="1:56" x14ac:dyDescent="0.2">

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA7185F-5CA8-4D48-8DC6-2523BDD78134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB30ABF5-45B1-1B4F-91B6-76B6F1BCF812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="16080" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O102" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="W117" sqref="W117"/>
+    <sheetView tabSelected="1" topLeftCell="O101" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W119" sqref="W119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7511,6 +7511,118 @@
       </c>
       <c r="W116" s="2">
         <v>6562</v>
+      </c>
+    </row>
+    <row r="117" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B117" s="2">
+        <v>399513</v>
+      </c>
+      <c r="C117" s="2">
+        <v>24959</v>
+      </c>
+      <c r="E117" s="1">
+        <v>44021</v>
+      </c>
+      <c r="F117" s="2">
+        <v>174240</v>
+      </c>
+      <c r="G117" s="2">
+        <v>13501</v>
+      </c>
+      <c r="I117" s="1">
+        <v>44021</v>
+      </c>
+      <c r="J117" s="2">
+        <v>105138</v>
+      </c>
+      <c r="K117" s="2">
+        <v>8053</v>
+      </c>
+      <c r="M117" s="1">
+        <v>44021</v>
+      </c>
+      <c r="N117" s="2">
+        <v>67683</v>
+      </c>
+      <c r="O117" s="2">
+        <v>6024</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>44021</v>
+      </c>
+      <c r="R117" s="2">
+        <v>92867</v>
+      </c>
+      <c r="S117" s="2">
+        <v>6848</v>
+      </c>
+      <c r="U117" s="1">
+        <v>44021</v>
+      </c>
+      <c r="V117" s="2">
+        <v>296499</v>
+      </c>
+      <c r="W117" s="2">
+        <v>6711</v>
+      </c>
+    </row>
+    <row r="118" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B118" s="2">
+        <v>400299</v>
+      </c>
+      <c r="C118" s="2">
+        <v>24968</v>
+      </c>
+      <c r="E118" s="1">
+        <v>44022</v>
+      </c>
+      <c r="F118" s="2">
+        <v>174628</v>
+      </c>
+      <c r="G118" s="2">
+        <v>13532</v>
+      </c>
+      <c r="I118" s="1">
+        <v>44022</v>
+      </c>
+      <c r="J118" s="2">
+        <v>105290</v>
+      </c>
+      <c r="K118" s="2">
+        <v>8081</v>
+      </c>
+      <c r="M118" s="1">
+        <v>44022</v>
+      </c>
+      <c r="N118" s="2">
+        <v>68295</v>
+      </c>
+      <c r="O118" s="2">
+        <v>6039</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>44022</v>
+      </c>
+      <c r="R118" s="2">
+        <v>93876</v>
+      </c>
+      <c r="S118" s="2">
+        <v>6880</v>
+      </c>
+      <c r="U118" s="1">
+        <v>44022</v>
+      </c>
+      <c r="V118" s="2">
+        <v>304297</v>
+      </c>
+      <c r="W118" s="2">
+        <v>6851</v>
       </c>
     </row>
     <row r="127" spans="1:56" x14ac:dyDescent="0.2">

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB30ABF5-45B1-1B4F-91B6-76B6F1BCF812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B6EB5B-8D99-7F43-8559-B9A24E820926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="15620" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O101" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="W119" sqref="W119"/>
+    <sheetView tabSelected="1" topLeftCell="Q101" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W120" sqref="W120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7623,6 +7623,62 @@
       </c>
       <c r="W118" s="2">
         <v>6851</v>
+      </c>
+    </row>
+    <row r="119" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B119" s="2">
+        <v>401029</v>
+      </c>
+      <c r="C119" s="2">
+        <v>24974</v>
+      </c>
+      <c r="E119" s="1">
+        <v>44023</v>
+      </c>
+      <c r="F119" s="2">
+        <v>174959</v>
+      </c>
+      <c r="G119" s="2">
+        <v>13578</v>
+      </c>
+      <c r="I119" s="1">
+        <v>44023</v>
+      </c>
+      <c r="J119" s="2">
+        <v>105457</v>
+      </c>
+      <c r="K119" s="2">
+        <v>8095</v>
+      </c>
+      <c r="M119" s="1">
+        <v>44023</v>
+      </c>
+      <c r="N119" s="2">
+        <v>68948</v>
+      </c>
+      <c r="O119" s="2">
+        <v>6067</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>44023</v>
+      </c>
+      <c r="R119" s="2">
+        <v>94689</v>
+      </c>
+      <c r="S119" s="2">
+        <v>6897</v>
+      </c>
+      <c r="U119" s="1">
+        <v>44023</v>
+      </c>
+      <c r="V119" s="2">
+        <v>312344</v>
+      </c>
+      <c r="W119" s="2">
+        <v>6945</v>
       </c>
     </row>
     <row r="127" spans="1:56" x14ac:dyDescent="0.2">

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B6EB5B-8D99-7F43-8559-B9A24E820926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4BE8BD-B8A2-004D-A82D-1D78F8413735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15620" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="1660" yWindow="480" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -110,6 +110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q101" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="W120" sqref="W120"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7679,6 +7680,272 @@
       </c>
       <c r="W119" s="2">
         <v>6945</v>
+      </c>
+    </row>
+    <row r="120" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B120" s="2">
+        <v>401706</v>
+      </c>
+      <c r="C120" s="2">
+        <v>24979</v>
+      </c>
+      <c r="E120" s="1">
+        <v>44024</v>
+      </c>
+      <c r="F120" s="2">
+        <v>175298</v>
+      </c>
+      <c r="G120" s="2">
+        <v>13594</v>
+      </c>
+      <c r="I120" s="1">
+        <v>44024</v>
+      </c>
+      <c r="J120" s="2">
+        <v>105629</v>
+      </c>
+      <c r="K120" s="2">
+        <v>8110</v>
+      </c>
+      <c r="M120" s="1">
+        <v>44024</v>
+      </c>
+      <c r="N120" s="2">
+        <v>69338</v>
+      </c>
+      <c r="O120" s="2">
+        <v>6068</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>44024</v>
+      </c>
+      <c r="R120" s="2"/>
+      <c r="U120" s="1">
+        <v>44024</v>
+      </c>
+      <c r="V120" s="2">
+        <v>320804</v>
+      </c>
+      <c r="W120" s="2">
+        <v>7017</v>
+      </c>
+    </row>
+    <row r="121" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B121" s="2">
+        <v>402263</v>
+      </c>
+      <c r="C121" s="2">
+        <v>24989</v>
+      </c>
+      <c r="E121" s="1">
+        <v>44025</v>
+      </c>
+      <c r="F121" s="7">
+        <v>175522</v>
+      </c>
+      <c r="G121" s="2">
+        <v>13613</v>
+      </c>
+      <c r="I121" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J121" s="2">
+        <v>105783</v>
+      </c>
+      <c r="K121" s="2">
+        <v>8115</v>
+      </c>
+      <c r="M121" s="1">
+        <v>44025</v>
+      </c>
+      <c r="N121" s="2">
+        <v>69722</v>
+      </c>
+      <c r="O121" s="2">
+        <v>6075</v>
+      </c>
+      <c r="Q121" s="1">
+        <v>44025</v>
+      </c>
+      <c r="R121" s="2">
+        <v>95742</v>
+      </c>
+      <c r="S121" s="2">
+        <v>6911</v>
+      </c>
+      <c r="U121" s="1">
+        <v>44025</v>
+      </c>
+      <c r="V121" s="2">
+        <v>329162</v>
+      </c>
+      <c r="W121" s="2">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="122" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B122" s="2">
+        <v>403175</v>
+      </c>
+      <c r="C122" s="2">
+        <v>24994</v>
+      </c>
+      <c r="E122" s="1">
+        <v>44026</v>
+      </c>
+      <c r="F122" s="2">
+        <v>175915</v>
+      </c>
+      <c r="I122" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J122" s="2">
+        <v>105986</v>
+      </c>
+      <c r="K122" s="2">
+        <v>8125</v>
+      </c>
+      <c r="M122" s="1">
+        <v>44026</v>
+      </c>
+      <c r="Q122" s="1">
+        <v>44026</v>
+      </c>
+      <c r="R122" s="2">
+        <v>96671</v>
+      </c>
+      <c r="S122" s="2">
+        <v>6931</v>
+      </c>
+      <c r="U122" s="1">
+        <v>44026</v>
+      </c>
+      <c r="V122" s="2">
+        <v>336508</v>
+      </c>
+      <c r="W122" s="2">
+        <v>7087</v>
+      </c>
+    </row>
+    <row r="123" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B123" s="2">
+        <v>404006</v>
+      </c>
+      <c r="C123" s="2">
+        <v>25003</v>
+      </c>
+      <c r="E123" s="1">
+        <v>44027</v>
+      </c>
+      <c r="F123" s="2">
+        <v>176278</v>
+      </c>
+      <c r="G123" s="2">
+        <v>13660</v>
+      </c>
+      <c r="I123" s="1">
+        <v>44027</v>
+      </c>
+      <c r="J123" s="2">
+        <v>106128</v>
+      </c>
+      <c r="K123" s="2">
+        <v>8152</v>
+      </c>
+      <c r="M123" s="1">
+        <v>44027</v>
+      </c>
+      <c r="N123" s="2">
+        <v>71197</v>
+      </c>
+      <c r="O123" s="2">
+        <v>6085</v>
+      </c>
+      <c r="Q123" s="1">
+        <v>44027</v>
+      </c>
+      <c r="R123" s="2">
+        <v>97665</v>
+      </c>
+      <c r="S123" s="2">
+        <v>6957</v>
+      </c>
+      <c r="U123" s="1">
+        <v>44027</v>
+      </c>
+      <c r="V123" s="2">
+        <v>347634</v>
+      </c>
+      <c r="W123" s="2">
+        <v>7227</v>
+      </c>
+    </row>
+    <row r="124" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B124" s="2">
+        <v>404775</v>
+      </c>
+      <c r="C124" s="2">
+        <v>25014</v>
+      </c>
+      <c r="E124" s="1">
+        <v>44028</v>
+      </c>
+      <c r="F124" s="2">
+        <v>176501</v>
+      </c>
+      <c r="G124" s="2">
+        <v>13691</v>
+      </c>
+      <c r="I124" s="1">
+        <v>44028</v>
+      </c>
+      <c r="J124" s="2">
+        <v>106271</v>
+      </c>
+      <c r="K124" s="2">
+        <v>8163</v>
+      </c>
+      <c r="M124" s="1">
+        <v>44028</v>
+      </c>
+      <c r="N124" s="2">
+        <v>71842</v>
+      </c>
+      <c r="O124" s="2">
+        <v>6101</v>
+      </c>
+      <c r="Q124" s="1">
+        <v>44028</v>
+      </c>
+      <c r="R124" s="2">
+        <v>98446</v>
+      </c>
+      <c r="S124" s="2">
+        <v>6973</v>
+      </c>
+      <c r="U124" s="1">
+        <v>44028</v>
+      </c>
+      <c r="V124" s="2">
+        <v>356178</v>
+      </c>
+      <c r="W124" s="2">
+        <v>7345</v>
       </c>
     </row>
     <row r="127" spans="1:56" x14ac:dyDescent="0.2">

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4BE8BD-B8A2-004D-A82D-1D78F8413735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3D7959-C01A-E84E-831C-35C65B139106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="480" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="17640" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N122" sqref="N122"/>
+    <sheetView tabSelected="1" topLeftCell="P112" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W126" sqref="W126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7946,6 +7946,62 @@
       </c>
       <c r="W124" s="2">
         <v>7345</v>
+      </c>
+    </row>
+    <row r="125" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B125" s="2">
+        <v>405551</v>
+      </c>
+      <c r="C125" s="2">
+        <v>25024</v>
+      </c>
+      <c r="E125" s="1">
+        <v>44029</v>
+      </c>
+      <c r="F125" s="2">
+        <v>176551</v>
+      </c>
+      <c r="G125" s="2">
+        <v>13710</v>
+      </c>
+      <c r="I125" s="1">
+        <v>44029</v>
+      </c>
+      <c r="J125" s="2">
+        <v>106487</v>
+      </c>
+      <c r="K125" s="2">
+        <v>8184</v>
+      </c>
+      <c r="M125" s="1">
+        <v>44029</v>
+      </c>
+      <c r="N125" s="2">
+        <v>72502</v>
+      </c>
+      <c r="O125" s="2">
+        <v>6108</v>
+      </c>
+      <c r="Q125" s="1">
+        <v>44029</v>
+      </c>
+      <c r="R125" s="2">
+        <v>99478</v>
+      </c>
+      <c r="S125" s="2">
+        <v>6992</v>
+      </c>
+      <c r="U125" s="1">
+        <v>44029</v>
+      </c>
+      <c r="V125" s="2">
+        <v>366164</v>
+      </c>
+      <c r="W125" s="2">
+        <v>7475</v>
       </c>
     </row>
     <row r="127" spans="1:56" x14ac:dyDescent="0.2">

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3D7959-C01A-E84E-831C-35C65B139106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB10732-C893-FE4C-BAFA-37489C77ACB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="15380" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -111,6 +111,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P112" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="W126" sqref="W126"/>
+    <sheetView tabSelected="1" topLeftCell="O114" zoomScale="87" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="X132" sqref="X132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8004,29 +8005,122 @@
         <v>7475</v>
       </c>
     </row>
+    <row r="126" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B126" s="2">
+        <v>406305</v>
+      </c>
+      <c r="C126" s="2">
+        <v>25035</v>
+      </c>
+      <c r="E126" s="1">
+        <v>44030</v>
+      </c>
+      <c r="F126" s="2">
+        <v>176814</v>
+      </c>
+      <c r="G126" s="2">
+        <v>13725</v>
+      </c>
+      <c r="I126" s="1">
+        <v>44030</v>
+      </c>
+      <c r="J126" s="2">
+        <v>106664</v>
+      </c>
+      <c r="K126" s="2">
+        <v>8201</v>
+      </c>
+      <c r="M126" s="1">
+        <v>44030</v>
+      </c>
+      <c r="N126" s="2">
+        <v>73180</v>
+      </c>
+      <c r="O126" s="2">
+        <v>6117</v>
+      </c>
+      <c r="Q126" s="1">
+        <v>44030</v>
+      </c>
+      <c r="R126" s="2">
+        <v>100241</v>
+      </c>
+      <c r="S126" s="2">
+        <v>7007</v>
+      </c>
+      <c r="U126" s="1">
+        <v>44030</v>
+      </c>
+      <c r="V126" s="2">
+        <v>375363</v>
+      </c>
+      <c r="W126" s="2">
+        <v>7595</v>
+      </c>
+    </row>
     <row r="127" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
+      <c r="A127" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B127" s="8">
+        <v>406807</v>
+      </c>
+      <c r="C127" s="8">
+        <v>25048</v>
+      </c>
       <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
+      <c r="E127" s="3">
+        <v>44031</v>
+      </c>
+      <c r="F127" s="6">
+        <v>176783</v>
+      </c>
+      <c r="G127" s="6">
+        <v>13732</v>
+      </c>
       <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
+      <c r="I127" s="3">
+        <v>44031</v>
+      </c>
+      <c r="J127" s="6">
+        <v>106882</v>
+      </c>
+      <c r="K127" s="6">
+        <v>8213</v>
+      </c>
       <c r="L127" s="3"/>
-      <c r="M127" s="3"/>
-      <c r="N127" s="3"/>
-      <c r="O127" s="3"/>
+      <c r="M127" s="3">
+        <v>44031</v>
+      </c>
+      <c r="N127" s="6">
+        <v>73663</v>
+      </c>
+      <c r="O127" s="6">
+        <v>6119</v>
+      </c>
       <c r="P127" s="3"/>
-      <c r="Q127" s="3"/>
-      <c r="R127" s="3"/>
-      <c r="S127" s="3"/>
+      <c r="Q127" s="3">
+        <v>44031</v>
+      </c>
+      <c r="R127" s="6">
+        <v>101027</v>
+      </c>
+      <c r="S127" s="6">
+        <v>7015</v>
+      </c>
       <c r="T127" s="3"/>
-      <c r="U127" s="3"/>
-      <c r="V127" s="3"/>
-      <c r="W127" s="3"/>
+      <c r="U127" s="3">
+        <v>44031</v>
+      </c>
+      <c r="V127" s="6">
+        <v>384692</v>
+      </c>
+      <c r="W127" s="6">
+        <v>7685</v>
+      </c>
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
@@ -8060,6 +8154,286 @@
       <c r="BB127" s="1"/>
       <c r="BC127" s="1"/>
       <c r="BD127" s="1"/>
+    </row>
+    <row r="128" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B128" s="2">
+        <v>407326</v>
+      </c>
+      <c r="C128" s="2">
+        <v>25056</v>
+      </c>
+      <c r="E128" s="1">
+        <v>44032</v>
+      </c>
+      <c r="F128" s="2">
+        <v>176963</v>
+      </c>
+      <c r="G128" s="2">
+        <v>13741</v>
+      </c>
+      <c r="I128" s="1">
+        <v>44032</v>
+      </c>
+      <c r="J128" s="2">
+        <v>107056</v>
+      </c>
+      <c r="K128" s="2">
+        <v>8214</v>
+      </c>
+      <c r="M128" s="1">
+        <v>44032</v>
+      </c>
+      <c r="N128" s="2">
+        <v>74152</v>
+      </c>
+      <c r="O128" s="2">
+        <v>6126</v>
+      </c>
+      <c r="Q128" s="1">
+        <v>44032</v>
+      </c>
+      <c r="R128" s="2">
+        <v>101738</v>
+      </c>
+      <c r="S128" s="2">
+        <v>7018</v>
+      </c>
+      <c r="U128" s="1">
+        <v>44032</v>
+      </c>
+      <c r="V128" s="2">
+        <v>391538</v>
+      </c>
+      <c r="W128" s="2">
+        <v>7694</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B129" s="2">
+        <v>408181</v>
+      </c>
+      <c r="C129" s="2">
+        <v>25058</v>
+      </c>
+      <c r="E129" s="1">
+        <v>44033</v>
+      </c>
+      <c r="F129" s="2">
+        <v>177256</v>
+      </c>
+      <c r="G129" s="2">
+        <v>13763</v>
+      </c>
+      <c r="I129" s="1">
+        <v>44033</v>
+      </c>
+      <c r="J129" s="2">
+        <v>107221</v>
+      </c>
+      <c r="K129" s="2">
+        <v>8231</v>
+      </c>
+      <c r="M129" s="1">
+        <v>44033</v>
+      </c>
+      <c r="N129" s="2">
+        <v>74725</v>
+      </c>
+      <c r="O129" s="2">
+        <v>6135</v>
+      </c>
+      <c r="Q129" s="1">
+        <v>44033</v>
+      </c>
+      <c r="R129" s="2">
+        <v>102765</v>
+      </c>
+      <c r="S129" s="2">
+        <v>7038</v>
+      </c>
+      <c r="U129" s="1">
+        <v>44033</v>
+      </c>
+      <c r="V129" s="2">
+        <v>400769</v>
+      </c>
+      <c r="W129" s="2">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B130" s="2">
+        <v>408886</v>
+      </c>
+      <c r="C130" s="2">
+        <v>25068</v>
+      </c>
+      <c r="E130" s="1">
+        <v>44034</v>
+      </c>
+      <c r="F130" s="2">
+        <v>177645</v>
+      </c>
+      <c r="G130" s="2">
+        <v>13787</v>
+      </c>
+      <c r="I130" s="1">
+        <v>44034</v>
+      </c>
+      <c r="J130" s="2">
+        <v>107413</v>
+      </c>
+      <c r="K130" s="2">
+        <v>8249</v>
+      </c>
+      <c r="M130" s="1">
+        <v>44034</v>
+      </c>
+      <c r="N130" s="2">
+        <v>75248</v>
+      </c>
+      <c r="O130" s="2">
+        <v>6141</v>
+      </c>
+      <c r="Q130" s="1">
+        <v>44034</v>
+      </c>
+      <c r="R130" s="2">
+        <v>103396</v>
+      </c>
+      <c r="S130" s="2">
+        <v>7063</v>
+      </c>
+      <c r="U130" s="1">
+        <v>44034</v>
+      </c>
+      <c r="V130" s="2">
+        <v>413576</v>
+      </c>
+      <c r="W130" s="2">
+        <v>7870</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B131" s="2">
+        <v>409697</v>
+      </c>
+      <c r="C131" s="2">
+        <v>25081</v>
+      </c>
+      <c r="E131" s="1">
+        <v>44035</v>
+      </c>
+      <c r="F131" s="2">
+        <v>177887</v>
+      </c>
+      <c r="G131" s="2">
+        <v>13810</v>
+      </c>
+      <c r="I131" s="1">
+        <v>44035</v>
+      </c>
+      <c r="J131" s="2">
+        <v>107683</v>
+      </c>
+      <c r="K131" s="2">
+        <v>8265</v>
+      </c>
+      <c r="M131" s="1">
+        <v>44035</v>
+      </c>
+      <c r="N131" s="2">
+        <v>75947</v>
+      </c>
+      <c r="O131" s="2">
+        <v>6148</v>
+      </c>
+      <c r="Q131" s="1">
+        <v>44035</v>
+      </c>
+      <c r="R131" s="2">
+        <v>104358</v>
+      </c>
+      <c r="S131" s="2">
+        <v>7079</v>
+      </c>
+      <c r="U131" s="1">
+        <v>44035</v>
+      </c>
+      <c r="V131" s="2">
+        <v>425616</v>
+      </c>
+      <c r="W131" s="2">
+        <v>8027</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B132" s="2">
+        <v>410450</v>
+      </c>
+      <c r="C132" s="2">
+        <v>25090</v>
+      </c>
+      <c r="E132" s="1">
+        <v>44036</v>
+      </c>
+      <c r="F132" s="2">
+        <v>178345</v>
+      </c>
+      <c r="G132" s="2">
+        <v>13845</v>
+      </c>
+      <c r="I132" s="1">
+        <v>44036</v>
+      </c>
+      <c r="J132" s="2">
+        <v>107897</v>
+      </c>
+      <c r="K132" s="2">
+        <v>8279</v>
+      </c>
+      <c r="M132" s="1">
+        <v>44036</v>
+      </c>
+      <c r="N132" s="2">
+        <v>76541</v>
+      </c>
+      <c r="O132" s="2">
+        <v>6151</v>
+      </c>
+      <c r="Q132" s="1">
+        <v>44036</v>
+      </c>
+      <c r="R132" s="2">
+        <v>105571</v>
+      </c>
+      <c r="S132" s="2">
+        <v>7101</v>
+      </c>
+      <c r="U132" s="1">
+        <v>44036</v>
+      </c>
+      <c r="V132" s="2">
+        <v>435334</v>
+      </c>
+      <c r="W132" s="2">
+        <v>8186</v>
+      </c>
     </row>
     <row r="153" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B153" s="3"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB10732-C893-FE4C-BAFA-37489C77ACB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4F73EC-DFA6-7B4B-9EAB-952F1421C96F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="15800" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O114" zoomScale="87" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="X132" sqref="X132"/>
+    <sheetView tabSelected="1" topLeftCell="N120" zoomScale="87" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W134" sqref="W134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8433,6 +8433,62 @@
       </c>
       <c r="W132" s="2">
         <v>8186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B133" s="2">
+        <v>411200</v>
+      </c>
+      <c r="C133" s="2">
+        <v>25103</v>
+      </c>
+      <c r="E133" s="1">
+        <v>44037</v>
+      </c>
+      <c r="F133" s="2">
+        <v>178858</v>
+      </c>
+      <c r="G133" s="2">
+        <v>13856</v>
+      </c>
+      <c r="I133" s="1">
+        <v>44037</v>
+      </c>
+      <c r="J133" s="2">
+        <v>108107</v>
+      </c>
+      <c r="K133" s="2">
+        <v>8291</v>
+      </c>
+      <c r="M133" s="1">
+        <v>44037</v>
+      </c>
+      <c r="N133" s="2">
+        <v>76978</v>
+      </c>
+      <c r="O133" s="2">
+        <v>6149</v>
+      </c>
+      <c r="Q133" s="1">
+        <v>44037</v>
+      </c>
+      <c r="R133" s="2">
+        <v>106625</v>
+      </c>
+      <c r="S133" s="2">
+        <v>7114</v>
+      </c>
+      <c r="U133" s="1">
+        <v>44037</v>
+      </c>
+      <c r="V133" s="2">
+        <v>445400</v>
+      </c>
+      <c r="W133" s="2">
+        <v>8337</v>
       </c>
     </row>
     <row r="153" spans="2:56" x14ac:dyDescent="0.2">

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4F73EC-DFA6-7B4B-9EAB-952F1421C96F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60F32DC-E4B2-CE4D-8F8A-53CDDF9F646D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15800" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="17080" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N120" zoomScale="87" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="W134" sqref="W134"/>
+    <sheetView tabSelected="1" topLeftCell="P145" zoomScale="87" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W153" sqref="W153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8491,7 +8491,1015 @@
         <v>8337</v>
       </c>
     </row>
-    <row r="153" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B134" s="2">
+        <v>411736</v>
+      </c>
+      <c r="C134" s="2">
+        <v>25106</v>
+      </c>
+      <c r="E134" s="1">
+        <v>44038</v>
+      </c>
+      <c r="F134" s="2">
+        <v>179363</v>
+      </c>
+      <c r="G134" s="2">
+        <v>13867</v>
+      </c>
+      <c r="I134" s="1">
+        <v>44038</v>
+      </c>
+      <c r="J134" s="2">
+        <v>108380</v>
+      </c>
+      <c r="K134" s="2">
+        <v>8310</v>
+      </c>
+      <c r="M134" s="1">
+        <v>44038</v>
+      </c>
+      <c r="N134" s="2">
+        <v>78019</v>
+      </c>
+      <c r="O134" s="2">
+        <v>6149</v>
+      </c>
+      <c r="Q134" s="1">
+        <v>44038</v>
+      </c>
+      <c r="R134" s="2">
+        <v>107425</v>
+      </c>
+      <c r="S134" s="2">
+        <v>7118</v>
+      </c>
+      <c r="U134" s="1">
+        <v>44038</v>
+      </c>
+      <c r="V134" s="2">
+        <v>453659</v>
+      </c>
+      <c r="W134" s="2">
+        <v>8416</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B135" s="2">
+        <v>412344</v>
+      </c>
+      <c r="C135" s="2">
+        <v>25117</v>
+      </c>
+      <c r="E135" s="1">
+        <v>44039</v>
+      </c>
+      <c r="F135" s="2">
+        <v>179812</v>
+      </c>
+      <c r="G135" s="2">
+        <v>13994</v>
+      </c>
+      <c r="I135" s="1">
+        <v>44039</v>
+      </c>
+      <c r="J135" s="2">
+        <v>108562</v>
+      </c>
+      <c r="K135" s="2">
+        <v>8317</v>
+      </c>
+      <c r="M135" s="1">
+        <v>44039</v>
+      </c>
+      <c r="N135" s="2">
+        <v>78507</v>
+      </c>
+      <c r="O135" s="2">
+        <v>6154</v>
+      </c>
+      <c r="Q135" s="1">
+        <v>44039</v>
+      </c>
+      <c r="R135" s="2">
+        <v>108264</v>
+      </c>
+      <c r="S135" s="2">
+        <v>7122</v>
+      </c>
+      <c r="U135" s="1">
+        <v>44039</v>
+      </c>
+      <c r="V135" s="2">
+        <v>460550</v>
+      </c>
+      <c r="W135" s="2">
+        <v>8445</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B136" s="2">
+        <v>412878</v>
+      </c>
+      <c r="C136" s="2">
+        <v>25126</v>
+      </c>
+      <c r="E136" s="1">
+        <v>44040</v>
+      </c>
+      <c r="F136" s="2">
+        <v>180295</v>
+      </c>
+      <c r="G136" s="2">
+        <v>13905</v>
+      </c>
+      <c r="I136" s="1">
+        <v>44040</v>
+      </c>
+      <c r="J136" s="2">
+        <v>108740</v>
+      </c>
+      <c r="K136" s="2">
+        <v>8331</v>
+      </c>
+      <c r="M136" s="1">
+        <v>44040</v>
+      </c>
+      <c r="N136" s="2">
+        <v>79176</v>
+      </c>
+      <c r="O136" s="2">
+        <v>6170</v>
+      </c>
+      <c r="Q136" s="1">
+        <v>44040</v>
+      </c>
+      <c r="R136" s="2">
+        <v>109384</v>
+      </c>
+      <c r="S136" s="2">
+        <v>7146</v>
+      </c>
+      <c r="U136" s="1">
+        <v>44040</v>
+      </c>
+      <c r="V136" s="2">
+        <v>466550</v>
+      </c>
+      <c r="W136" s="2">
+        <v>8518</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B137" s="2">
+        <v>413593</v>
+      </c>
+      <c r="C137" s="2">
+        <v>25132</v>
+      </c>
+      <c r="E137" s="1">
+        <v>44041</v>
+      </c>
+      <c r="F137" s="2">
+        <v>180766</v>
+      </c>
+      <c r="G137" s="2">
+        <v>13923</v>
+      </c>
+      <c r="I137" s="1">
+        <v>44041</v>
+      </c>
+      <c r="J137" s="2">
+        <v>109096</v>
+      </c>
+      <c r="K137" s="2">
+        <v>8360</v>
+      </c>
+      <c r="M137" s="1">
+        <v>44041</v>
+      </c>
+      <c r="N137" s="2">
+        <v>80172</v>
+      </c>
+      <c r="O137" s="2">
+        <v>6172</v>
+      </c>
+      <c r="Q137" s="1">
+        <v>44041</v>
+      </c>
+      <c r="R137" s="2">
+        <v>110218</v>
+      </c>
+      <c r="S137" s="2">
+        <v>7162</v>
+      </c>
+      <c r="U137" s="1">
+        <v>44041</v>
+      </c>
+      <c r="V137" s="2">
+        <v>475305</v>
+      </c>
+      <c r="W137" s="2">
+        <v>8715</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B138" s="2">
+        <v>414370</v>
+      </c>
+      <c r="C138" s="2">
+        <v>25145</v>
+      </c>
+      <c r="E138" s="1">
+        <v>44042</v>
+      </c>
+      <c r="F138" s="2">
+        <v>180970</v>
+      </c>
+      <c r="G138" s="2">
+        <v>13934</v>
+      </c>
+      <c r="I138" s="1">
+        <v>44042</v>
+      </c>
+      <c r="J138" s="2">
+        <v>109400</v>
+      </c>
+      <c r="K138" s="2">
+        <v>8375</v>
+      </c>
+      <c r="M138" s="1">
+        <v>44042</v>
+      </c>
+      <c r="N138" s="2">
+        <v>80887</v>
+      </c>
+      <c r="O138" s="2">
+        <v>6191</v>
+      </c>
+      <c r="Q138" s="1">
+        <v>44042</v>
+      </c>
+      <c r="R138" s="2">
+        <v>111078</v>
+      </c>
+      <c r="S138" s="2">
+        <v>7189</v>
+      </c>
+      <c r="U138" s="1">
+        <v>44042</v>
+      </c>
+      <c r="V138" s="2">
+        <v>485502</v>
+      </c>
+      <c r="W138" s="2">
+        <v>8909</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B139" s="2">
+        <v>415014</v>
+      </c>
+      <c r="C139" s="2">
+        <v>25150</v>
+      </c>
+      <c r="E139" s="1">
+        <v>44043</v>
+      </c>
+      <c r="F139" s="2">
+        <v>181660</v>
+      </c>
+      <c r="G139" s="2">
+        <v>13944</v>
+      </c>
+      <c r="I139" s="1">
+        <v>44043</v>
+      </c>
+      <c r="J139" s="2">
+        <v>109787</v>
+      </c>
+      <c r="K139" s="2">
+        <v>8389</v>
+      </c>
+      <c r="M139" s="1">
+        <v>44043</v>
+      </c>
+      <c r="N139" s="2">
+        <v>81621</v>
+      </c>
+      <c r="O139" s="2">
+        <v>6199</v>
+      </c>
+      <c r="Q139" s="1">
+        <v>44043</v>
+      </c>
+      <c r="R139" s="2">
+        <v>112048</v>
+      </c>
+      <c r="S139" s="2">
+        <v>7189</v>
+      </c>
+      <c r="U139" s="1">
+        <v>44043</v>
+      </c>
+      <c r="V139" s="2">
+        <v>493588</v>
+      </c>
+      <c r="W139" s="2">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B140" s="2">
+        <v>415767</v>
+      </c>
+      <c r="C140" s="2">
+        <v>25164</v>
+      </c>
+      <c r="E140" s="1">
+        <v>44044</v>
+      </c>
+      <c r="F140" s="2">
+        <v>182029</v>
+      </c>
+      <c r="G140" s="2">
+        <v>13955</v>
+      </c>
+      <c r="I140" s="1">
+        <v>44044</v>
+      </c>
+      <c r="J140" s="2">
+        <v>110077</v>
+      </c>
+      <c r="K140" s="2">
+        <v>8406</v>
+      </c>
+      <c r="M140" s="1">
+        <v>44044</v>
+      </c>
+      <c r="N140" s="2">
+        <v>82356</v>
+      </c>
+      <c r="O140" s="2">
+        <v>6206</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>44044</v>
+      </c>
+      <c r="R140" s="2">
+        <v>112936</v>
+      </c>
+      <c r="S140" s="2">
+        <v>7204</v>
+      </c>
+      <c r="U140" s="1">
+        <v>44044</v>
+      </c>
+      <c r="V140" s="2">
+        <v>500130</v>
+      </c>
+      <c r="W140" s="2">
+        <v>9224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B141" s="2">
+        <v>416298</v>
+      </c>
+      <c r="C141" s="2">
+        <v>25170</v>
+      </c>
+      <c r="E141" s="1">
+        <v>44045</v>
+      </c>
+      <c r="F141" s="2">
+        <v>182350</v>
+      </c>
+      <c r="G141" s="2">
+        <v>13961</v>
+      </c>
+      <c r="I141" s="1">
+        <v>44045</v>
+      </c>
+      <c r="J141" s="2">
+        <v>110430</v>
+      </c>
+      <c r="K141" s="2">
+        <v>8417</v>
+      </c>
+      <c r="M141" s="1">
+        <v>44045</v>
+      </c>
+      <c r="N141" s="2">
+        <v>82782</v>
+      </c>
+      <c r="O141" s="2">
+        <v>6206</v>
+      </c>
+      <c r="Q141" s="1">
+        <v>44045</v>
+      </c>
+      <c r="R141" s="2">
+        <v>113590</v>
+      </c>
+      <c r="S141" s="2">
+        <v>7209</v>
+      </c>
+      <c r="U141" s="1">
+        <v>44045</v>
+      </c>
+      <c r="V141" s="2">
+        <v>509162</v>
+      </c>
+      <c r="W141" s="2">
+        <v>9356</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B142" s="2">
+        <v>416843</v>
+      </c>
+      <c r="C142" s="2">
+        <v>25172</v>
+      </c>
+      <c r="E142" s="1">
+        <v>44046</v>
+      </c>
+      <c r="F142" s="2">
+        <v>182614</v>
+      </c>
+      <c r="G142" s="2">
+        <v>13971</v>
+      </c>
+      <c r="I142" s="1">
+        <v>44046</v>
+      </c>
+      <c r="J142" s="2">
+        <v>110595</v>
+      </c>
+      <c r="K142" s="2">
+        <v>8427</v>
+      </c>
+      <c r="M142" s="1">
+        <v>44046</v>
+      </c>
+      <c r="N142" s="2">
+        <v>83386</v>
+      </c>
+      <c r="O142" s="2">
+        <v>6212</v>
+      </c>
+      <c r="Q142" s="1">
+        <v>44046</v>
+      </c>
+      <c r="R142" s="2">
+        <v>114155</v>
+      </c>
+      <c r="S142" s="2">
+        <v>7209</v>
+      </c>
+      <c r="U142" s="1">
+        <v>44046</v>
+      </c>
+      <c r="V142" s="2">
+        <v>514901</v>
+      </c>
+      <c r="W142" s="2">
+        <v>9388</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B143" s="2">
+        <v>417589</v>
+      </c>
+      <c r="C143" s="2">
+        <v>25175</v>
+      </c>
+      <c r="E143" s="1">
+        <v>44047</v>
+      </c>
+      <c r="F143" s="2">
+        <v>182970</v>
+      </c>
+      <c r="G143" s="2">
+        <v>13982</v>
+      </c>
+      <c r="I143" s="1">
+        <v>44047</v>
+      </c>
+      <c r="J143" s="2">
+        <v>111033</v>
+      </c>
+      <c r="K143" s="2">
+        <v>8436</v>
+      </c>
+      <c r="M143" s="1">
+        <v>44047</v>
+      </c>
+      <c r="N143" s="2">
+        <v>84050</v>
+      </c>
+      <c r="O143" s="2">
+        <v>6219</v>
+      </c>
+      <c r="Q143" s="1">
+        <v>44047</v>
+      </c>
+      <c r="R143" s="2">
+        <v>115009</v>
+      </c>
+      <c r="S143" s="2">
+        <v>7232</v>
+      </c>
+      <c r="U143" s="1">
+        <v>44047</v>
+      </c>
+      <c r="V143" s="2">
+        <v>519427</v>
+      </c>
+      <c r="W143" s="2">
+        <v>9501</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B144" s="2">
+        <v>418225</v>
+      </c>
+      <c r="C144" s="2">
+        <v>25179</v>
+      </c>
+      <c r="E144" s="1">
+        <v>44048</v>
+      </c>
+      <c r="F144" s="2">
+        <v>183327</v>
+      </c>
+      <c r="G144" s="2">
+        <v>13989</v>
+      </c>
+      <c r="I144" s="1">
+        <v>44048</v>
+      </c>
+      <c r="J144" s="2">
+        <v>111371</v>
+      </c>
+      <c r="K144" s="2">
+        <v>8438</v>
+      </c>
+      <c r="M144" s="1">
+        <v>44048</v>
+      </c>
+      <c r="N144" s="2">
+        <v>84707</v>
+      </c>
+      <c r="O144" s="2">
+        <v>6221</v>
+      </c>
+      <c r="Q144" s="1">
+        <v>44048</v>
+      </c>
+      <c r="R144" s="2">
+        <v>115714</v>
+      </c>
+      <c r="S144" s="2">
+        <v>7244</v>
+      </c>
+      <c r="U144" s="1">
+        <v>44048</v>
+      </c>
+      <c r="V144" s="2">
+        <v>524722</v>
+      </c>
+      <c r="W144" s="2">
+        <v>9703</v>
+      </c>
+    </row>
+    <row r="145" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B145" s="2">
+        <v>418928</v>
+      </c>
+      <c r="C145" s="2">
+        <v>25185</v>
+      </c>
+      <c r="E145" s="1">
+        <v>44049</v>
+      </c>
+      <c r="F145" s="2">
+        <v>183701</v>
+      </c>
+      <c r="G145" s="2">
+        <v>13996</v>
+      </c>
+      <c r="I145" s="1">
+        <v>44049</v>
+      </c>
+      <c r="J145" s="2">
+        <v>111533</v>
+      </c>
+      <c r="K145" s="2">
+        <v>8470</v>
+      </c>
+      <c r="M145" s="1">
+        <v>44049</v>
+      </c>
+      <c r="N145" s="2">
+        <v>85429</v>
+      </c>
+      <c r="O145" s="2">
+        <v>6247</v>
+      </c>
+      <c r="Q145" s="1">
+        <v>44049</v>
+      </c>
+      <c r="R145" s="2">
+        <v>116521</v>
+      </c>
+      <c r="S145" s="2">
+        <v>7282</v>
+      </c>
+      <c r="U145" s="1">
+        <v>44049</v>
+      </c>
+      <c r="V145" s="2">
+        <v>529980</v>
+      </c>
+      <c r="W145" s="2">
+        <v>9869</v>
+      </c>
+    </row>
+    <row r="146" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B146" s="2">
+        <v>70170</v>
+      </c>
+      <c r="C146" s="2">
+        <v>25190</v>
+      </c>
+      <c r="E146" s="1">
+        <v>44050</v>
+      </c>
+      <c r="F146" s="2">
+        <v>184061</v>
+      </c>
+      <c r="G146" s="2">
+        <v>14007</v>
+      </c>
+      <c r="I146" s="1">
+        <v>44050</v>
+      </c>
+      <c r="J146" s="2">
+        <v>111853</v>
+      </c>
+      <c r="K146" s="2">
+        <v>8488</v>
+      </c>
+      <c r="M146" s="1">
+        <v>44050</v>
+      </c>
+      <c r="N146" s="2">
+        <v>86191</v>
+      </c>
+      <c r="O146" s="2">
+        <v>6247</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>44050</v>
+      </c>
+      <c r="R146" s="2">
+        <v>117279</v>
+      </c>
+      <c r="S146" s="2">
+        <v>7297</v>
+      </c>
+      <c r="U146" s="1">
+        <v>44050</v>
+      </c>
+      <c r="V146" s="2">
+        <v>538416</v>
+      </c>
+      <c r="W146" s="2">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="147" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B147" s="2">
+        <v>420345</v>
+      </c>
+      <c r="C147" s="2">
+        <v>25195</v>
+      </c>
+      <c r="E147" s="1">
+        <v>44051</v>
+      </c>
+      <c r="F147" s="2">
+        <v>184429</v>
+      </c>
+      <c r="G147" s="2">
+        <v>14016</v>
+      </c>
+      <c r="I147" s="1">
+        <v>44051</v>
+      </c>
+      <c r="J147" s="2">
+        <v>112173</v>
+      </c>
+      <c r="K147" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M147" s="1">
+        <v>44051</v>
+      </c>
+      <c r="N147" s="2">
+        <v>86889</v>
+      </c>
+      <c r="O147" s="2">
+        <v>6250</v>
+      </c>
+      <c r="Q147" s="1">
+        <v>44051</v>
+      </c>
+      <c r="R147" s="2">
+        <v>118092</v>
+      </c>
+      <c r="S147" s="2">
+        <v>7313</v>
+      </c>
+      <c r="U147" s="1">
+        <v>44051</v>
+      </c>
+      <c r="V147" s="2">
+        <v>545787</v>
+      </c>
+      <c r="W147" s="2">
+        <v>10189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B148" s="2">
+        <v>420860</v>
+      </c>
+      <c r="C148" s="2">
+        <v>25202</v>
+      </c>
+      <c r="E148" s="1">
+        <v>44052</v>
+      </c>
+      <c r="F148" s="2">
+        <v>184773</v>
+      </c>
+      <c r="G148" s="2">
+        <v>14021</v>
+      </c>
+      <c r="I148" s="1">
+        <v>44052</v>
+      </c>
+      <c r="J148" s="2">
+        <v>112459</v>
+      </c>
+      <c r="K148" s="2">
+        <v>8514</v>
+      </c>
+      <c r="M148" s="1">
+        <v>44052</v>
+      </c>
+      <c r="N148" s="2">
+        <v>87403</v>
+      </c>
+      <c r="O148" s="2">
+        <v>6249</v>
+      </c>
+      <c r="Q148" s="1">
+        <v>44052</v>
+      </c>
+      <c r="R148" s="2">
+        <v>118852</v>
+      </c>
+      <c r="S148" s="2">
+        <v>7314</v>
+      </c>
+      <c r="U148" s="1">
+        <v>44052</v>
+      </c>
+      <c r="V148" s="2">
+        <v>554160</v>
+      </c>
+      <c r="W148" s="2">
+        <v>10293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B150" s="2">
+        <v>422003</v>
+      </c>
+      <c r="C150" s="2">
+        <v>25211</v>
+      </c>
+      <c r="E150" s="1">
+        <v>44054</v>
+      </c>
+      <c r="F150" s="2">
+        <v>185475</v>
+      </c>
+      <c r="G150" s="2">
+        <v>14037</v>
+      </c>
+      <c r="I150" s="1">
+        <v>44054</v>
+      </c>
+      <c r="J150" s="2">
+        <v>112969</v>
+      </c>
+      <c r="K150" s="2">
+        <v>8529</v>
+      </c>
+      <c r="M150" s="1">
+        <v>44054</v>
+      </c>
+      <c r="N150" s="2">
+        <v>88756</v>
+      </c>
+      <c r="O150" s="2">
+        <v>6264</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>44054</v>
+      </c>
+      <c r="R150" s="2">
+        <v>120281</v>
+      </c>
+      <c r="S150" s="2">
+        <v>7352</v>
+      </c>
+      <c r="U150" s="1">
+        <v>44054</v>
+      </c>
+      <c r="V150" s="2">
+        <v>574411</v>
+      </c>
+      <c r="W150" s="2">
+        <v>10468</v>
+      </c>
+    </row>
+    <row r="151" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B151" s="2">
+        <v>422703</v>
+      </c>
+      <c r="C151" s="2">
+        <v>25218</v>
+      </c>
+      <c r="E151" s="1">
+        <v>44055</v>
+      </c>
+      <c r="F151" s="2">
+        <v>185938</v>
+      </c>
+      <c r="G151" s="2">
+        <v>14046</v>
+      </c>
+      <c r="I151" s="1">
+        <v>44055</v>
+      </c>
+      <c r="J151" s="2">
+        <v>113198</v>
+      </c>
+      <c r="K151" s="2">
+        <v>8547</v>
+      </c>
+      <c r="M151" s="1">
+        <v>44055</v>
+      </c>
+      <c r="N151" s="2">
+        <v>89271</v>
+      </c>
+      <c r="O151" s="2">
+        <v>6273</v>
+      </c>
+      <c r="Q151" s="1">
+        <v>44055</v>
+      </c>
+      <c r="R151" s="2">
+        <v>121130</v>
+      </c>
+      <c r="S151" s="2">
+        <v>7385</v>
+      </c>
+      <c r="U151" s="1">
+        <v>44055</v>
+      </c>
+      <c r="V151" s="2">
+        <v>586056</v>
+      </c>
+      <c r="W151" s="2">
+        <v>10648</v>
+      </c>
+    </row>
+    <row r="152" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B152" s="2">
+        <v>423440</v>
+      </c>
+      <c r="C152" s="2">
+        <v>25228</v>
+      </c>
+      <c r="E152" s="1">
+        <v>44056</v>
+      </c>
+      <c r="F152" s="2">
+        <v>186594</v>
+      </c>
+      <c r="G152" s="2">
+        <v>14054</v>
+      </c>
+      <c r="I152" s="1">
+        <v>44056</v>
+      </c>
+      <c r="J152" s="2">
+        <v>113517</v>
+      </c>
+      <c r="K152" s="2">
+        <v>8568</v>
+      </c>
+      <c r="M152" s="1">
+        <v>44056</v>
+      </c>
+      <c r="N152" s="2">
+        <v>90392</v>
+      </c>
+      <c r="O152" s="2">
+        <v>6289</v>
+      </c>
+      <c r="Q152" s="1">
+        <v>44056</v>
+      </c>
+      <c r="R152" s="2">
+        <v>122121</v>
+      </c>
+      <c r="S152" s="2">
+        <v>7409</v>
+      </c>
+      <c r="U152" s="1">
+        <v>44056</v>
+      </c>
+      <c r="V152" s="2">
+        <v>593141</v>
+      </c>
+      <c r="W152" s="2">
+        <v>10808</v>
+      </c>
+    </row>
+    <row r="153" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -8548,7 +9556,7 @@
       <c r="BC153" s="1"/>
       <c r="BD153" s="1"/>
     </row>
-    <row r="154" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>

--- a/statesTop5.xlsx
+++ b/statesTop5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60F32DC-E4B2-CE4D-8F8A-53CDDF9F646D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3F1688-E883-6048-9504-174AABE3D709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17080" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
+    <workbookView xWindow="16300" yWindow="460" windowWidth="17220" windowHeight="16500" xr2:uid="{92BE7CB7-8A1C-B64A-A8CD-7024558A3B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>NEW YORK</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>MICHIGAN</t>
+  </si>
+  <si>
+    <t>]</t>
   </si>
 </sst>
 </file>
@@ -428,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52708D7A-4DE8-234C-A1E9-2FCC95EBDD88}">
   <dimension ref="A1:CP232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P145" zoomScale="87" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="W153" sqref="W153"/>
+    <sheetView tabSelected="1" topLeftCell="R144" zoomScale="87" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W155" sqref="W155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9500,28 +9503,65 @@
       </c>
     </row>
     <row r="153" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="A153" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B153" s="3">
+        <v>424167</v>
+      </c>
+      <c r="C153" s="3">
+        <v>25232</v>
+      </c>
       <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
+      <c r="E153" s="3">
+        <v>44057</v>
+      </c>
+      <c r="F153" s="3">
+        <v>187164</v>
+      </c>
+      <c r="G153" s="3">
+        <v>1839</v>
+      </c>
       <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
+      <c r="I153" s="3">
+        <v>44057</v>
+      </c>
+      <c r="J153" s="3">
+        <v>113729</v>
+      </c>
+      <c r="K153" s="3">
+        <v>8582</v>
+      </c>
       <c r="L153" s="3"/>
-      <c r="M153" s="3"/>
-      <c r="N153" s="3"/>
-      <c r="O153" s="3"/>
+      <c r="M153" s="3">
+        <v>44057</v>
+      </c>
+      <c r="N153" s="3">
+        <v>91140</v>
+      </c>
+      <c r="O153" s="3">
+        <v>6300</v>
+      </c>
       <c r="P153" s="3"/>
-      <c r="Q153" s="3"/>
-      <c r="R153" s="3"/>
-      <c r="S153" s="3"/>
+      <c r="Q153" s="3">
+        <v>44057</v>
+      </c>
+      <c r="R153" s="3">
+        <v>122950</v>
+      </c>
+      <c r="S153" s="3">
+        <v>7445</v>
+      </c>
       <c r="T153" s="3"/>
-      <c r="U153" s="3"/>
-      <c r="V153" s="3"/>
-      <c r="W153" s="3"/>
+      <c r="U153" s="3">
+        <v>44057</v>
+      </c>
+      <c r="V153" s="3">
+        <v>601075</v>
+      </c>
+      <c r="W153" s="3">
+        <v>10996</v>
+      </c>
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
@@ -9557,28 +9597,65 @@
       <c r="BD153" s="1"/>
     </row>
     <row r="154" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
+      <c r="A154" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B154" s="5">
+        <v>424901</v>
+      </c>
+      <c r="C154" s="5">
+        <v>25244</v>
+      </c>
       <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
+      <c r="E154" s="5">
+        <v>44058</v>
+      </c>
+      <c r="F154" s="5">
+        <v>187442</v>
+      </c>
+      <c r="G154" s="5">
+        <v>1839</v>
+      </c>
       <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
+      <c r="I154" s="5">
+        <v>44058</v>
+      </c>
+      <c r="J154" s="5">
+        <v>114095</v>
+      </c>
+      <c r="K154" s="5">
+        <v>8596</v>
+      </c>
       <c r="L154" s="5"/>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
-      <c r="O154" s="5"/>
+      <c r="M154" s="5">
+        <v>44058</v>
+      </c>
+      <c r="N154" s="5">
+        <v>92155</v>
+      </c>
+      <c r="O154" s="5">
+        <v>6318</v>
+      </c>
       <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="5"/>
-      <c r="S154" s="5"/>
+      <c r="Q154" s="5">
+        <v>44058</v>
+      </c>
+      <c r="R154" s="5">
+        <v>123800</v>
+      </c>
+      <c r="S154" s="5">
+        <v>7465</v>
+      </c>
       <c r="T154" s="5"/>
-      <c r="U154" s="5"/>
-      <c r="V154" s="5"/>
-      <c r="W154" s="5"/>
+      <c r="U154" s="5">
+        <v>44058</v>
+      </c>
+      <c r="V154" s="5">
+        <v>613689</v>
+      </c>
+      <c r="W154" s="5">
+        <v>11147</v>
+      </c>
       <c r="X154" s="5"/>
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
@@ -9588,6 +9665,11 @@
       <c r="AD154" s="5"/>
       <c r="AE154" s="5"/>
       <c r="AF154" s="5"/>
+    </row>
+    <row r="155" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="E155" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="183" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B183" s="1"/>
